--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.386206813327167</v>
+        <v>8.386206813327126</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.77966689773964</v>
+        <v>2.779666897739816</v>
       </c>
       <c r="E2">
-        <v>4.921249360843383</v>
+        <v>4.921249360843325</v>
       </c>
       <c r="F2">
-        <v>38.27533302715373</v>
+        <v>38.27533302715369</v>
       </c>
       <c r="G2">
-        <v>29.66294527891063</v>
+        <v>29.66294527891061</v>
       </c>
       <c r="H2">
-        <v>11.78575034814431</v>
+        <v>11.78575034814438</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.46657833443098</v>
+        <v>41.46657833443095</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>28.68964429154516</v>
+        <v>28.68964429154515</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.888084877588092</v>
+        <v>7.888084877588099</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.650798311068295</v>
+        <v>2.65079831106826</v>
       </c>
       <c r="E3">
-        <v>5.17045784231273</v>
+        <v>5.170457842312599</v>
       </c>
       <c r="F3">
-        <v>35.36450343356572</v>
+        <v>35.36450343356561</v>
       </c>
       <c r="G3">
-        <v>27.35293690248052</v>
+        <v>27.35293690248046</v>
       </c>
       <c r="H3">
-        <v>12.23546233653699</v>
+        <v>12.23546233653703</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.57626642221763</v>
+        <v>38.57626642221756</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.566172935834839</v>
+        <v>7.566172935834923</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.652658403711813</v>
+        <v>2.652658403711857</v>
       </c>
       <c r="E4">
-        <v>5.330127881720903</v>
+        <v>5.330127881720902</v>
       </c>
       <c r="F4">
-        <v>33.67511645224582</v>
+        <v>33.67511645224578</v>
       </c>
       <c r="G4">
-        <v>26.10785670558074</v>
+        <v>26.10785670558071</v>
       </c>
       <c r="H4">
-        <v>12.52163264143183</v>
+        <v>12.52163264143171</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>36.71749181178426</v>
+        <v>36.71749181178429</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>25.35794629649598</v>
+        <v>25.35794629649599</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.43096731483715</v>
+        <v>7.430967314837117</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.656705633549379</v>
+        <v>2.656705633549305</v>
       </c>
       <c r="E5">
         <v>5.396738669565448</v>
       </c>
       <c r="F5">
-        <v>32.99270645527776</v>
+        <v>32.99270645527781</v>
       </c>
       <c r="G5">
-        <v>25.60738427651818</v>
+        <v>25.6073842765182</v>
       </c>
       <c r="H5">
-        <v>12.64070446333848</v>
+        <v>12.64070446333841</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>35.93832390494274</v>
+        <v>35.93832390494276</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>24.81291282764601</v>
+        <v>24.81291282764602</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.408274205950995</v>
+        <v>7.408274205950971</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.657563740368729</v>
+        <v>2.657563740368721</v>
       </c>
       <c r="E6">
-        <v>5.407889589291782</v>
+        <v>5.407889589291841</v>
       </c>
       <c r="F6">
-        <v>32.8791206818259</v>
+        <v>32.87912068182594</v>
       </c>
       <c r="G6">
-        <v>25.52423035147848</v>
+        <v>25.52423035147851</v>
       </c>
       <c r="H6">
-        <v>12.66062293784437</v>
+        <v>12.66062293784427</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>35.80761814329897</v>
+        <v>35.80761814329899</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>24.72152527180211</v>
+        <v>24.72152527180212</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.564365768077305</v>
+        <v>7.564365768077394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.652700239518831</v>
+        <v>2.652700239518754</v>
       </c>
       <c r="E7">
-        <v>5.331020107289836</v>
+        <v>5.331020107289706</v>
       </c>
       <c r="F7">
-        <v>33.66593152348577</v>
+        <v>33.66593152348572</v>
       </c>
       <c r="G7">
-        <v>26.10111063978947</v>
+        <v>26.10111063978945</v>
       </c>
       <c r="H7">
-        <v>12.523228620054</v>
+        <v>12.52322862005392</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>36.70707222986567</v>
+        <v>36.7070722298656</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>25.35065487420513</v>
+        <v>25.3506548742051</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.217793296280956</v>
+        <v>8.217793296280883</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.684466410348334</v>
+        <v>2.684466410348328</v>
       </c>
       <c r="E8">
-        <v>5.005702613358223</v>
+        <v>5.005702613358229</v>
       </c>
       <c r="F8">
-        <v>37.27914329251259</v>
+        <v>37.27914329251264</v>
       </c>
       <c r="G8">
-        <v>28.87260566391423</v>
+        <v>28.8726056639143</v>
       </c>
       <c r="H8">
         <v>11.93867475376698</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.48710021363003</v>
+        <v>40.48710021363008</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>28.00108944436963</v>
+        <v>28.00108944436966</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.371717506982455</v>
+        <v>9.371717506982398</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.375217907409124</v>
+        <v>3.375217907409136</v>
       </c>
       <c r="E9">
-        <v>4.429514687874411</v>
+        <v>4.429514687874415</v>
       </c>
       <c r="F9">
-        <v>44.36752816413597</v>
+        <v>44.36752816413602</v>
       </c>
       <c r="G9">
-        <v>34.49374973692672</v>
+        <v>34.49374973692677</v>
       </c>
       <c r="H9">
-        <v>10.87705934891043</v>
+        <v>10.87705934891052</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.26173294932475</v>
+        <v>47.2617329493248</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>32.77968830763357</v>
+        <v>32.77968830763363</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.14271582556895</v>
+        <v>10.14271582556891</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.894517632147671</v>
+        <v>3.894517632147627</v>
       </c>
       <c r="E10">
-        <v>4.063649328177383</v>
+        <v>4.063649328177306</v>
       </c>
       <c r="F10">
-        <v>49.48372468803045</v>
+        <v>49.48372468803044</v>
       </c>
       <c r="G10">
-        <v>38.55067677941447</v>
+        <v>38.55067677941445</v>
       </c>
       <c r="H10">
         <v>10.15967311531303</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>51.89979955053555</v>
+        <v>51.89979955053548</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.07475929236447</v>
+        <v>36.07475929236445</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.47721862179854</v>
+        <v>10.47721862179856</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.137253680288088</v>
+        <v>4.137253680288095</v>
       </c>
       <c r="E11">
-        <v>3.917273596566063</v>
+        <v>3.91727359656613</v>
       </c>
       <c r="F11">
-        <v>51.81444728391683</v>
+        <v>51.81444728391676</v>
       </c>
       <c r="G11">
-        <v>40.399677146519</v>
+        <v>40.39967714651893</v>
       </c>
       <c r="H11">
-        <v>9.851032497831728</v>
+        <v>9.851032497831785</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>53.95048040948637</v>
+        <v>53.95048040948631</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>37.5383752755986</v>
+        <v>37.53837527559855</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.60160309746449</v>
+        <v>10.60160309746455</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.230539341994604</v>
+        <v>4.230539341994583</v>
       </c>
       <c r="E12">
-        <v>3.865707309090897</v>
+        <v>3.865707309090746</v>
       </c>
       <c r="F12">
-        <v>52.70015690835898</v>
+        <v>52.70015690835859</v>
       </c>
       <c r="G12">
-        <v>41.10252436689004</v>
+        <v>41.10252436688972</v>
       </c>
       <c r="H12">
-        <v>9.737231353409538</v>
+        <v>9.737231353409571</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>54.72005523153612</v>
+        <v>54.72005523153586</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.08876264171712</v>
+        <v>38.08876264171698</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.210379737929794</v>
+        <v>4.210379737929878</v>
       </c>
       <c r="E13">
-        <v>3.876621800364833</v>
+        <v>3.876621800365002</v>
       </c>
       <c r="F13">
-        <v>52.50921503351316</v>
+        <v>52.50921503351338</v>
       </c>
       <c r="G13">
-        <v>40.95099390313653</v>
+        <v>40.95099390313671</v>
       </c>
       <c r="H13">
-        <v>9.761593239025929</v>
+        <v>9.761593239025885</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>54.55459509518607</v>
+        <v>54.55459509518613</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>37.97037541297513</v>
+        <v>37.97037541297514</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.48749726277036</v>
+        <v>10.48749726277041</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.144898086156132</v>
+        <v>4.144898086156137</v>
       </c>
       <c r="E14">
-        <v>3.912946914121281</v>
+        <v>3.912946914121203</v>
       </c>
       <c r="F14">
-        <v>51.88723499975677</v>
+        <v>51.88723499975681</v>
       </c>
       <c r="G14">
-        <v>40.45743274529401</v>
+        <v>40.45743274529404</v>
       </c>
       <c r="H14">
-        <v>9.841604682870212</v>
+        <v>9.841604682870159</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>37.58372508112976</v>
+        <v>37.58372508112978</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,31 +912,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.104981365496978</v>
+        <v>4.104981365497035</v>
       </c>
       <c r="E15">
-        <v>3.93573522235734</v>
+        <v>3.935735222357287</v>
       </c>
       <c r="F15">
-        <v>51.50675058559155</v>
+        <v>51.50675058559145</v>
       </c>
       <c r="G15">
-        <v>40.15553448571993</v>
+        <v>40.15553448571985</v>
       </c>
       <c r="H15">
-        <v>9.89103329667177</v>
+        <v>9.891033296671795</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>53.68189022319173</v>
+        <v>53.68189022319172</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>37.34643039328736</v>
+        <v>37.34643039328734</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.12053263059097</v>
+        <v>10.12053263059096</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.878819625527785</v>
+        <v>3.878819625527841</v>
       </c>
       <c r="E16">
-        <v>4.073694900559766</v>
+        <v>4.073694900559788</v>
       </c>
       <c r="F16">
-        <v>49.33168310280371</v>
+        <v>49.33168310280377</v>
       </c>
       <c r="G16">
-        <v>38.43008307681263</v>
+        <v>38.43008307681269</v>
       </c>
       <c r="H16">
-        <v>10.18024079941759</v>
+        <v>10.18024079941762</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>51.76471499258006</v>
+        <v>51.76471499258016</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>35.9784961787801</v>
+        <v>35.97849617878018</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.924316457434177</v>
+        <v>9.924316457434209</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.742017486287514</v>
+        <v>3.742017486287464</v>
       </c>
       <c r="E17">
-        <v>4.16405895591031</v>
+        <v>4.164058955910263</v>
       </c>
       <c r="F17">
-        <v>47.99986715865657</v>
+        <v>47.99986715865663</v>
       </c>
       <c r="G17">
-        <v>37.37383935032206</v>
+        <v>37.37383935032209</v>
       </c>
       <c r="H17">
-        <v>10.36251529874704</v>
+        <v>10.36251529874695</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>50.57441483494816</v>
+        <v>50.5744148349481</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>35.13105195716999</v>
+        <v>35.13105195716997</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.809926938145072</v>
+        <v>9.809926938145036</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.663913527539425</v>
+        <v>3.663913527539491</v>
       </c>
       <c r="E18">
-        <v>4.217845899656574</v>
+        <v>4.217845899656515</v>
       </c>
       <c r="F18">
         <v>47.2339622760049</v>
       </c>
       <c r="G18">
-        <v>36.76648493072794</v>
+        <v>36.76648493072791</v>
       </c>
       <c r="H18">
-        <v>10.46898015472941</v>
+        <v>10.46898015472943</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>49.88410342784785</v>
+        <v>49.88410342784781</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>34.64021132020019</v>
+        <v>34.64021132020022</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.770932346281118</v>
+        <v>9.77093234628108</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.63755718392049</v>
+        <v>3.637557183920349</v>
       </c>
       <c r="E19">
-        <v>4.236344019780123</v>
+        <v>4.236344019780135</v>
       </c>
       <c r="F19">
-        <v>46.9745915088588</v>
+        <v>46.97459150885877</v>
       </c>
       <c r="G19">
-        <v>36.56081700266319</v>
+        <v>36.56081700266314</v>
       </c>
       <c r="H19">
-        <v>10.5052932495355</v>
+        <v>10.50529324953558</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.6493586565183</v>
+        <v>49.64935865651834</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.945362159371244</v>
+        <v>9.945362159371305</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.756517384895803</v>
+        <v>3.756517384895798</v>
       </c>
       <c r="E20">
-        <v>4.154246013522238</v>
+        <v>4.154246013522202</v>
       </c>
       <c r="F20">
-        <v>48.14161190309945</v>
+        <v>48.1416119030994</v>
       </c>
       <c r="G20">
-        <v>37.48624687211953</v>
+        <v>37.48624687211947</v>
       </c>
       <c r="H20">
-        <v>10.34294039280462</v>
+        <v>10.34294039280454</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>50.70170239043981</v>
+        <v>50.70170239043976</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>35.22160909380908</v>
+        <v>35.22160909380904</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.51323561668383</v>
+        <v>10.51323561668381</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.164090547021991</v>
+        <v>4.164090547022088</v>
       </c>
       <c r="E21">
-        <v>3.902162940603218</v>
+        <v>3.902162940603244</v>
       </c>
       <c r="F21">
-        <v>52.06981641157997</v>
+        <v>52.06981641157989</v>
       </c>
       <c r="G21">
-        <v>40.6023109023152</v>
+        <v>40.60231090231512</v>
       </c>
       <c r="H21">
-        <v>9.818014778854826</v>
+        <v>9.818014778854879</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>54.17290690719469</v>
+        <v>54.17290690719464</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.69738693290256</v>
+        <v>37.69738693290252</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.87109088581148</v>
+        <v>10.87109088581147</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.438718202562034</v>
+        <v>4.438718202562085</v>
       </c>
       <c r="E22">
-        <v>3.760658128218339</v>
+        <v>3.760658128218322</v>
       </c>
       <c r="F22">
-        <v>54.65708207379786</v>
+        <v>54.65708207379792</v>
       </c>
       <c r="G22">
-        <v>42.65587763045846</v>
+        <v>42.65587763045852</v>
       </c>
       <c r="H22">
-        <v>9.493261574497144</v>
+        <v>9.493261574497179</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>56.4019034833337</v>
+        <v>56.40190348333379</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>39.2938027696459</v>
+        <v>39.29380276964594</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.68129235608895</v>
+        <v>10.68129235608897</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.291215305273644</v>
+        <v>4.291215305273604</v>
       </c>
       <c r="E23">
-        <v>3.833634148081217</v>
+        <v>3.833634148081365</v>
       </c>
       <c r="F23">
-        <v>53.27331003647026</v>
+        <v>53.27331003647053</v>
       </c>
       <c r="G23">
-        <v>41.55741066033004</v>
+        <v>41.55741066033023</v>
       </c>
       <c r="H23">
-        <v>9.664684654854954</v>
+        <v>9.664684654854774</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>55.21525975129998</v>
+        <v>55.21525975130008</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>38.44325754893524</v>
+        <v>38.44325754893529</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.935852329351636</v>
+        <v>9.93585232935167</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.749960312923678</v>
+        <v>3.749960312923722</v>
       </c>
       <c r="E24">
-        <v>4.158676796646842</v>
+        <v>4.158676796646846</v>
       </c>
       <c r="F24">
-        <v>48.0775299974615</v>
+        <v>48.07752999746146</v>
       </c>
       <c r="G24">
         <v>37.4354279168504</v>
       </c>
       <c r="H24">
-        <v>10.35178503452921</v>
+        <v>10.3517850345291</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.64417446133137</v>
+        <v>50.64417446133129</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>35.18067961896654</v>
+        <v>35.18067961896649</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.073143230385734</v>
+        <v>9.073143230385643</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.187395001520671</v>
+        <v>3.18739500152059</v>
       </c>
       <c r="E25">
-        <v>4.577197288040504</v>
+        <v>4.577197288040626</v>
       </c>
       <c r="F25">
-        <v>42.4723423004459</v>
+        <v>42.47234230044592</v>
       </c>
       <c r="G25">
-        <v>32.99119355110045</v>
+        <v>32.99119355110048</v>
       </c>
       <c r="H25">
-        <v>11.15430896851501</v>
+        <v>11.15430896851519</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.49273440059871</v>
+        <v>45.49273440059874</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>31.5281429992647</v>
+        <v>31.52814299926472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.386206813327126</v>
+        <v>8.386206813327167</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.779666897739816</v>
+        <v>2.77966689773964</v>
       </c>
       <c r="E2">
-        <v>4.921249360843325</v>
+        <v>4.921249360843383</v>
       </c>
       <c r="F2">
-        <v>38.27533302715369</v>
+        <v>38.27533302715373</v>
       </c>
       <c r="G2">
-        <v>29.66294527891061</v>
+        <v>29.66294527891063</v>
       </c>
       <c r="H2">
-        <v>11.78575034814438</v>
+        <v>11.78575034814431</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>41.46657833443095</v>
+        <v>41.46657833443098</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>28.68964429154515</v>
+        <v>28.68964429154516</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.888084877588099</v>
+        <v>7.888084877588092</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.65079831106826</v>
+        <v>2.650798311068295</v>
       </c>
       <c r="E3">
-        <v>5.170457842312599</v>
+        <v>5.17045784231273</v>
       </c>
       <c r="F3">
-        <v>35.36450343356561</v>
+        <v>35.36450343356572</v>
       </c>
       <c r="G3">
-        <v>27.35293690248046</v>
+        <v>27.35293690248052</v>
       </c>
       <c r="H3">
-        <v>12.23546233653703</v>
+        <v>12.23546233653699</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>38.57626642221756</v>
+        <v>38.57626642221763</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.566172935834923</v>
+        <v>7.566172935834839</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.652658403711857</v>
+        <v>2.652658403711813</v>
       </c>
       <c r="E4">
-        <v>5.330127881720902</v>
+        <v>5.330127881720903</v>
       </c>
       <c r="F4">
-        <v>33.67511645224578</v>
+        <v>33.67511645224582</v>
       </c>
       <c r="G4">
-        <v>26.10785670558071</v>
+        <v>26.10785670558074</v>
       </c>
       <c r="H4">
-        <v>12.52163264143171</v>
+        <v>12.52163264143183</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>36.71749181178429</v>
+        <v>36.71749181178426</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>25.35794629649599</v>
+        <v>25.35794629649598</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.430967314837117</v>
+        <v>7.43096731483715</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.656705633549305</v>
+        <v>2.656705633549379</v>
       </c>
       <c r="E5">
         <v>5.396738669565448</v>
       </c>
       <c r="F5">
-        <v>32.99270645527781</v>
+        <v>32.99270645527776</v>
       </c>
       <c r="G5">
-        <v>25.6073842765182</v>
+        <v>25.60738427651818</v>
       </c>
       <c r="H5">
-        <v>12.64070446333841</v>
+        <v>12.64070446333848</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>35.93832390494276</v>
+        <v>35.93832390494274</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>24.81291282764602</v>
+        <v>24.81291282764601</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.408274205950971</v>
+        <v>7.408274205950995</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.657563740368721</v>
+        <v>2.657563740368729</v>
       </c>
       <c r="E6">
-        <v>5.407889589291841</v>
+        <v>5.407889589291782</v>
       </c>
       <c r="F6">
-        <v>32.87912068182594</v>
+        <v>32.8791206818259</v>
       </c>
       <c r="G6">
-        <v>25.52423035147851</v>
+        <v>25.52423035147848</v>
       </c>
       <c r="H6">
-        <v>12.66062293784427</v>
+        <v>12.66062293784437</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>35.80761814329899</v>
+        <v>35.80761814329897</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>24.72152527180212</v>
+        <v>24.72152527180211</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.564365768077394</v>
+        <v>7.564365768077305</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.652700239518754</v>
+        <v>2.652700239518831</v>
       </c>
       <c r="E7">
-        <v>5.331020107289706</v>
+        <v>5.331020107289836</v>
       </c>
       <c r="F7">
-        <v>33.66593152348572</v>
+        <v>33.66593152348577</v>
       </c>
       <c r="G7">
-        <v>26.10111063978945</v>
+        <v>26.10111063978947</v>
       </c>
       <c r="H7">
-        <v>12.52322862005392</v>
+        <v>12.523228620054</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>36.7070722298656</v>
+        <v>36.70707222986567</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>25.3506548742051</v>
+        <v>25.35065487420513</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.217793296280883</v>
+        <v>8.217793296280956</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.684466410348328</v>
+        <v>2.684466410348334</v>
       </c>
       <c r="E8">
-        <v>5.005702613358229</v>
+        <v>5.005702613358223</v>
       </c>
       <c r="F8">
-        <v>37.27914329251264</v>
+        <v>37.27914329251259</v>
       </c>
       <c r="G8">
-        <v>28.8726056639143</v>
+        <v>28.87260566391423</v>
       </c>
       <c r="H8">
         <v>11.93867475376698</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>40.48710021363008</v>
+        <v>40.48710021363003</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>28.00108944436966</v>
+        <v>28.00108944436963</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.371717506982398</v>
+        <v>9.371717506982455</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.375217907409136</v>
+        <v>3.375217907409124</v>
       </c>
       <c r="E9">
-        <v>4.429514687874415</v>
+        <v>4.429514687874411</v>
       </c>
       <c r="F9">
-        <v>44.36752816413602</v>
+        <v>44.36752816413597</v>
       </c>
       <c r="G9">
-        <v>34.49374973692677</v>
+        <v>34.49374973692672</v>
       </c>
       <c r="H9">
-        <v>10.87705934891052</v>
+        <v>10.87705934891043</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>47.2617329493248</v>
+        <v>47.26173294932475</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>32.77968830763363</v>
+        <v>32.77968830763357</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.14271582556891</v>
+        <v>10.14271582556895</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.894517632147627</v>
+        <v>3.894517632147671</v>
       </c>
       <c r="E10">
-        <v>4.063649328177306</v>
+        <v>4.063649328177383</v>
       </c>
       <c r="F10">
-        <v>49.48372468803044</v>
+        <v>49.48372468803045</v>
       </c>
       <c r="G10">
-        <v>38.55067677941445</v>
+        <v>38.55067677941447</v>
       </c>
       <c r="H10">
         <v>10.15967311531303</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>51.89979955053548</v>
+        <v>51.89979955053555</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>36.07475929236445</v>
+        <v>36.07475929236447</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.47721862179856</v>
+        <v>10.47721862179854</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.137253680288095</v>
+        <v>4.137253680288088</v>
       </c>
       <c r="E11">
-        <v>3.91727359656613</v>
+        <v>3.917273596566063</v>
       </c>
       <c r="F11">
-        <v>51.81444728391676</v>
+        <v>51.81444728391683</v>
       </c>
       <c r="G11">
-        <v>40.39967714651893</v>
+        <v>40.399677146519</v>
       </c>
       <c r="H11">
-        <v>9.851032497831785</v>
+        <v>9.851032497831728</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>53.95048040948631</v>
+        <v>53.95048040948637</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>37.53837527559855</v>
+        <v>37.5383752755986</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.60160309746455</v>
+        <v>10.60160309746449</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.230539341994583</v>
+        <v>4.230539341994604</v>
       </c>
       <c r="E12">
-        <v>3.865707309090746</v>
+        <v>3.865707309090897</v>
       </c>
       <c r="F12">
-        <v>52.70015690835859</v>
+        <v>52.70015690835898</v>
       </c>
       <c r="G12">
-        <v>41.10252436688972</v>
+        <v>41.10252436689004</v>
       </c>
       <c r="H12">
-        <v>9.737231353409571</v>
+        <v>9.737231353409538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>54.72005523153586</v>
+        <v>54.72005523153612</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>38.08876264171698</v>
+        <v>38.08876264171712</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,31 +836,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.210379737929878</v>
+        <v>4.210379737929794</v>
       </c>
       <c r="E13">
-        <v>3.876621800365002</v>
+        <v>3.876621800364833</v>
       </c>
       <c r="F13">
-        <v>52.50921503351338</v>
+        <v>52.50921503351316</v>
       </c>
       <c r="G13">
-        <v>40.95099390313671</v>
+        <v>40.95099390313653</v>
       </c>
       <c r="H13">
-        <v>9.761593239025885</v>
+        <v>9.761593239025929</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>54.55459509518613</v>
+        <v>54.55459509518607</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>37.97037541297514</v>
+        <v>37.97037541297513</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.48749726277041</v>
+        <v>10.48749726277036</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.144898086156137</v>
+        <v>4.144898086156132</v>
       </c>
       <c r="E14">
-        <v>3.912946914121203</v>
+        <v>3.912946914121281</v>
       </c>
       <c r="F14">
-        <v>51.88723499975681</v>
+        <v>51.88723499975677</v>
       </c>
       <c r="G14">
-        <v>40.45743274529404</v>
+        <v>40.45743274529401</v>
       </c>
       <c r="H14">
-        <v>9.841604682870159</v>
+        <v>9.841604682870212</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>37.58372508112978</v>
+        <v>37.58372508112976</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,31 +912,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.104981365497035</v>
+        <v>4.104981365496978</v>
       </c>
       <c r="E15">
-        <v>3.935735222357287</v>
+        <v>3.93573522235734</v>
       </c>
       <c r="F15">
-        <v>51.50675058559145</v>
+        <v>51.50675058559155</v>
       </c>
       <c r="G15">
-        <v>40.15553448571985</v>
+        <v>40.15553448571993</v>
       </c>
       <c r="H15">
-        <v>9.891033296671795</v>
+        <v>9.89103329667177</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>53.68189022319172</v>
+        <v>53.68189022319173</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>37.34643039328734</v>
+        <v>37.34643039328736</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.12053263059096</v>
+        <v>10.12053263059097</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.878819625527841</v>
+        <v>3.878819625527785</v>
       </c>
       <c r="E16">
-        <v>4.073694900559788</v>
+        <v>4.073694900559766</v>
       </c>
       <c r="F16">
-        <v>49.33168310280377</v>
+        <v>49.33168310280371</v>
       </c>
       <c r="G16">
-        <v>38.43008307681269</v>
+        <v>38.43008307681263</v>
       </c>
       <c r="H16">
-        <v>10.18024079941762</v>
+        <v>10.18024079941759</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>51.76471499258016</v>
+        <v>51.76471499258006</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>35.97849617878018</v>
+        <v>35.9784961787801</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.924316457434209</v>
+        <v>9.924316457434177</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.742017486287464</v>
+        <v>3.742017486287514</v>
       </c>
       <c r="E17">
-        <v>4.164058955910263</v>
+        <v>4.16405895591031</v>
       </c>
       <c r="F17">
-        <v>47.99986715865663</v>
+        <v>47.99986715865657</v>
       </c>
       <c r="G17">
-        <v>37.37383935032209</v>
+        <v>37.37383935032206</v>
       </c>
       <c r="H17">
-        <v>10.36251529874695</v>
+        <v>10.36251529874704</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>50.5744148349481</v>
+        <v>50.57441483494816</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>35.13105195716997</v>
+        <v>35.13105195716999</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.809926938145036</v>
+        <v>9.809926938145072</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.663913527539491</v>
+        <v>3.663913527539425</v>
       </c>
       <c r="E18">
-        <v>4.217845899656515</v>
+        <v>4.217845899656574</v>
       </c>
       <c r="F18">
         <v>47.2339622760049</v>
       </c>
       <c r="G18">
-        <v>36.76648493072791</v>
+        <v>36.76648493072794</v>
       </c>
       <c r="H18">
-        <v>10.46898015472943</v>
+        <v>10.46898015472941</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>49.88410342784781</v>
+        <v>49.88410342784785</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>34.64021132020022</v>
+        <v>34.64021132020019</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.77093234628108</v>
+        <v>9.770932346281118</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.637557183920349</v>
+        <v>3.63755718392049</v>
       </c>
       <c r="E19">
-        <v>4.236344019780135</v>
+        <v>4.236344019780123</v>
       </c>
       <c r="F19">
-        <v>46.97459150885877</v>
+        <v>46.9745915088588</v>
       </c>
       <c r="G19">
-        <v>36.56081700266314</v>
+        <v>36.56081700266319</v>
       </c>
       <c r="H19">
-        <v>10.50529324953558</v>
+        <v>10.5052932495355</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>49.64935865651834</v>
+        <v>49.6493586565183</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.945362159371305</v>
+        <v>9.945362159371244</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.756517384895798</v>
+        <v>3.756517384895803</v>
       </c>
       <c r="E20">
-        <v>4.154246013522202</v>
+        <v>4.154246013522238</v>
       </c>
       <c r="F20">
-        <v>48.1416119030994</v>
+        <v>48.14161190309945</v>
       </c>
       <c r="G20">
-        <v>37.48624687211947</v>
+        <v>37.48624687211953</v>
       </c>
       <c r="H20">
-        <v>10.34294039280454</v>
+        <v>10.34294039280462</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>50.70170239043976</v>
+        <v>50.70170239043981</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>35.22160909380904</v>
+        <v>35.22160909380908</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.51323561668381</v>
+        <v>10.51323561668383</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.164090547022088</v>
+        <v>4.164090547021991</v>
       </c>
       <c r="E21">
-        <v>3.902162940603244</v>
+        <v>3.902162940603218</v>
       </c>
       <c r="F21">
-        <v>52.06981641157989</v>
+        <v>52.06981641157997</v>
       </c>
       <c r="G21">
-        <v>40.60231090231512</v>
+        <v>40.6023109023152</v>
       </c>
       <c r="H21">
-        <v>9.818014778854879</v>
+        <v>9.818014778854826</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>54.17290690719464</v>
+        <v>54.17290690719469</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>37.69738693290252</v>
+        <v>37.69738693290256</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.87109088581147</v>
+        <v>10.87109088581148</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.438718202562085</v>
+        <v>4.438718202562034</v>
       </c>
       <c r="E22">
-        <v>3.760658128218322</v>
+        <v>3.760658128218339</v>
       </c>
       <c r="F22">
-        <v>54.65708207379792</v>
+        <v>54.65708207379786</v>
       </c>
       <c r="G22">
-        <v>42.65587763045852</v>
+        <v>42.65587763045846</v>
       </c>
       <c r="H22">
-        <v>9.493261574497179</v>
+        <v>9.493261574497144</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>56.40190348333379</v>
+        <v>56.4019034833337</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>39.29380276964594</v>
+        <v>39.2938027696459</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.68129235608897</v>
+        <v>10.68129235608895</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.291215305273604</v>
+        <v>4.291215305273644</v>
       </c>
       <c r="E23">
-        <v>3.833634148081365</v>
+        <v>3.833634148081217</v>
       </c>
       <c r="F23">
-        <v>53.27331003647053</v>
+        <v>53.27331003647026</v>
       </c>
       <c r="G23">
-        <v>41.55741066033023</v>
+        <v>41.55741066033004</v>
       </c>
       <c r="H23">
-        <v>9.664684654854774</v>
+        <v>9.664684654854954</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>55.21525975130008</v>
+        <v>55.21525975129998</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>38.44325754893529</v>
+        <v>38.44325754893524</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.93585232935167</v>
+        <v>9.935852329351636</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.749960312923722</v>
+        <v>3.749960312923678</v>
       </c>
       <c r="E24">
-        <v>4.158676796646846</v>
+        <v>4.158676796646842</v>
       </c>
       <c r="F24">
-        <v>48.07752999746146</v>
+        <v>48.0775299974615</v>
       </c>
       <c r="G24">
         <v>37.4354279168504</v>
       </c>
       <c r="H24">
-        <v>10.3517850345291</v>
+        <v>10.35178503452921</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>50.64417446133129</v>
+        <v>50.64417446133137</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>35.18067961896649</v>
+        <v>35.18067961896654</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.073143230385643</v>
+        <v>9.073143230385734</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.18739500152059</v>
+        <v>3.187395001520671</v>
       </c>
       <c r="E25">
-        <v>4.577197288040626</v>
+        <v>4.577197288040504</v>
       </c>
       <c r="F25">
-        <v>42.47234230044592</v>
+        <v>42.4723423004459</v>
       </c>
       <c r="G25">
-        <v>32.99119355110048</v>
+        <v>32.99119355110045</v>
       </c>
       <c r="H25">
-        <v>11.15430896851519</v>
+        <v>11.15430896851501</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>45.49273440059874</v>
+        <v>45.49273440059871</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>31.52814299926472</v>
+        <v>31.5281429992647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.386206813327167</v>
+        <v>8.389426399591967</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.77966689773964</v>
+        <v>2.772424599747312</v>
       </c>
       <c r="E2">
-        <v>4.921249360843383</v>
+        <v>4.919778545161843</v>
       </c>
       <c r="F2">
-        <v>38.27533302715373</v>
+        <v>38.24216814017288</v>
       </c>
       <c r="G2">
-        <v>29.66294527891063</v>
+        <v>29.70710855689685</v>
       </c>
       <c r="H2">
-        <v>11.78575034814431</v>
+        <v>29.54266397072296</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.79084837295097</v>
       </c>
       <c r="J2">
-        <v>41.46657833443098</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>41.45360070942717</v>
       </c>
       <c r="L2">
-        <v>28.68964429154516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>28.68331649187789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.888084877588092</v>
+        <v>7.891061225322921</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.650798311068295</v>
+        <v>2.645649662809284</v>
       </c>
       <c r="E3">
-        <v>5.17045784231273</v>
+        <v>5.16924029065911</v>
       </c>
       <c r="F3">
-        <v>35.36450343356572</v>
+        <v>35.33417072789323</v>
       </c>
       <c r="G3">
-        <v>27.35293690248052</v>
+        <v>27.39402561380848</v>
       </c>
       <c r="H3">
-        <v>12.23546233653699</v>
+        <v>27.37465117258041</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.23951746253466</v>
       </c>
       <c r="J3">
-        <v>38.57626642221763</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>38.56469112229214</v>
       </c>
       <c r="L3">
-        <v>26.65994164943512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>26.65437442885249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.566172935834839</v>
+        <v>7.568990047031438</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.652658403711813</v>
+        <v>2.647992377770583</v>
       </c>
       <c r="E4">
-        <v>5.330127881720903</v>
+        <v>5.329095197962449</v>
       </c>
       <c r="F4">
-        <v>33.67511645224582</v>
+        <v>33.6475411302422</v>
       </c>
       <c r="G4">
-        <v>26.10785670558074</v>
+        <v>25.94253030991002</v>
       </c>
       <c r="H4">
-        <v>12.52163264143183</v>
+        <v>26.14695681805834</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.5250800102127</v>
       </c>
       <c r="J4">
-        <v>36.71749181178426</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>36.70677314969276</v>
       </c>
       <c r="L4">
-        <v>25.35794629649598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>25.35283611962521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.43096731483715</v>
+        <v>7.433717010765037</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.656705633549379</v>
+        <v>2.652228909512309</v>
       </c>
       <c r="E5">
-        <v>5.396738669565448</v>
+        <v>5.395787571055463</v>
       </c>
       <c r="F5">
-        <v>32.99270645527776</v>
+        <v>32.96583543811656</v>
       </c>
       <c r="G5">
-        <v>25.60738427651818</v>
+        <v>25.35533767163443</v>
       </c>
       <c r="H5">
-        <v>12.64070446333848</v>
+        <v>25.64578127796126</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.64391092565139</v>
       </c>
       <c r="J5">
-        <v>35.93832390494274</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>35.92795497376029</v>
       </c>
       <c r="L5">
-        <v>24.81291282764601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>24.80798754050491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.408274205950995</v>
+        <v>7.411012553880727</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.657563740368729</v>
+        <v>2.65311799409762</v>
       </c>
       <c r="E6">
-        <v>5.407889589291782</v>
+        <v>5.406952387396972</v>
       </c>
       <c r="F6">
-        <v>32.8791206818259</v>
+        <v>32.85236667992763</v>
       </c>
       <c r="G6">
-        <v>25.52423035147848</v>
+        <v>25.25996068412567</v>
       </c>
       <c r="H6">
-        <v>12.66062293784437</v>
+        <v>25.56251029591458</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.66378976708408</v>
       </c>
       <c r="J6">
-        <v>35.80761814329897</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>35.79730737055453</v>
       </c>
       <c r="L6">
-        <v>24.72152527180211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>24.71663063368796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.564365768077305</v>
+        <v>7.567181980367213</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.652700239518831</v>
+        <v>2.64803679695154</v>
       </c>
       <c r="E7">
-        <v>5.331020107289836</v>
+        <v>5.329988499812558</v>
       </c>
       <c r="F7">
-        <v>33.66593152348577</v>
+        <v>33.63836569668612</v>
       </c>
       <c r="G7">
-        <v>26.10111063978947</v>
+        <v>25.93447533323795</v>
       </c>
       <c r="H7">
-        <v>12.523228620054</v>
+        <v>26.14020129139193</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.52667271430051</v>
       </c>
       <c r="J7">
-        <v>36.70707222986567</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>36.69635827960963</v>
       </c>
       <c r="L7">
-        <v>25.35065487420513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>25.34554719493488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.217793296280956</v>
+        <v>8.220931044179794</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.684466410348334</v>
+        <v>2.67742657015955</v>
       </c>
       <c r="E8">
-        <v>5.005702613358223</v>
+        <v>5.00431225329227</v>
       </c>
       <c r="F8">
-        <v>37.27914329251259</v>
+        <v>37.24695833950822</v>
       </c>
       <c r="G8">
-        <v>28.87260566391423</v>
+        <v>28.9157226731359</v>
       </c>
       <c r="H8">
-        <v>11.93867475376698</v>
+        <v>28.77968860561558</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.94340551076619</v>
       </c>
       <c r="J8">
-        <v>40.48710021363003</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>40.47460815342412</v>
       </c>
       <c r="L8">
-        <v>28.00108944436963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>27.99502670489182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.371717506982455</v>
+        <v>9.375408781833908</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.375217907409124</v>
+        <v>3.366702957887318</v>
       </c>
       <c r="E9">
-        <v>4.429514687874411</v>
+        <v>4.427723975441262</v>
       </c>
       <c r="F9">
-        <v>44.36752816413597</v>
+        <v>44.32808951853514</v>
       </c>
       <c r="G9">
-        <v>34.49374973692672</v>
+        <v>34.54413608933586</v>
       </c>
       <c r="H9">
-        <v>10.87705934891043</v>
+        <v>34.23228113537713</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.8846448080859</v>
       </c>
       <c r="J9">
-        <v>47.26173294932475</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>47.2456239979078</v>
       </c>
       <c r="L9">
-        <v>32.77968830763357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>32.77161014557116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.14271582556895</v>
+        <v>10.14676832526152</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.894517632147671</v>
+        <v>3.884873593585333</v>
       </c>
       <c r="E10">
-        <v>4.063649328177383</v>
+        <v>4.061887204131071</v>
       </c>
       <c r="F10">
-        <v>49.48372468803045</v>
+        <v>49.43855902321187</v>
       </c>
       <c r="G10">
-        <v>38.55067677941447</v>
+        <v>38.60597676785287</v>
       </c>
       <c r="H10">
-        <v>10.15967311531303</v>
+        <v>38.19667468456649</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.16967011628348</v>
       </c>
       <c r="J10">
-        <v>51.89979955053555</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>51.88078336799357</v>
       </c>
       <c r="L10">
-        <v>36.07475929236447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>36.06499727670693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.47721862179854</v>
+        <v>10.48142572579868</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.137253680288088</v>
+        <v>4.127071108189226</v>
       </c>
       <c r="E11">
-        <v>3.917273596566063</v>
+        <v>3.915639969201459</v>
       </c>
       <c r="F11">
-        <v>51.81444728391683</v>
+        <v>51.76649879023363</v>
       </c>
       <c r="G11">
-        <v>40.399677146519</v>
+        <v>40.45709003289647</v>
       </c>
       <c r="H11">
-        <v>9.851032497831728</v>
+        <v>40.00932290628288</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.862220863866154</v>
       </c>
       <c r="J11">
-        <v>53.95048040948637</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>53.9300326280886</v>
       </c>
       <c r="L11">
-        <v>37.5383752755986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>37.52776510276274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.60160309746449</v>
+        <v>10.60586734257551</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.230539341994604</v>
+        <v>4.220147418154826</v>
       </c>
       <c r="E12">
-        <v>3.865707309090897</v>
+        <v>3.864143948461279</v>
       </c>
       <c r="F12">
-        <v>52.70015690835898</v>
+        <v>52.65111797401352</v>
       </c>
       <c r="G12">
-        <v>41.10252436689004</v>
+        <v>41.16071583417597</v>
       </c>
       <c r="H12">
-        <v>9.737231353409538</v>
+        <v>40.69915640455049</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>9.748886413550109</v>
       </c>
       <c r="J12">
-        <v>54.72005523153612</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>54.69904311517676</v>
       </c>
       <c r="L12">
-        <v>38.08876264171712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>38.07781488123762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.57491535188278</v>
+        <v>10.57916735339492</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.210379737929794</v>
+        <v>4.200033179255142</v>
       </c>
       <c r="E13">
-        <v>3.876621800364833</v>
+        <v>3.875042257060326</v>
       </c>
       <c r="F13">
-        <v>52.50921503351316</v>
+        <v>52.46041279462421</v>
       </c>
       <c r="G13">
-        <v>40.95099390313653</v>
+        <v>41.00901872834324</v>
       </c>
       <c r="H13">
-        <v>9.761593239025929</v>
+        <v>40.55039633609866</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>9.773147070082363</v>
       </c>
       <c r="J13">
-        <v>54.55459509518607</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>54.53370563497491</v>
       </c>
       <c r="L13">
-        <v>37.97037541297513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>37.95950117855673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.48749726277036</v>
+        <v>10.49170909605073</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.144898086156132</v>
+        <v>4.13469841208209</v>
       </c>
       <c r="E14">
-        <v>3.912946914121281</v>
+        <v>3.911318602935551</v>
       </c>
       <c r="F14">
-        <v>51.88723499975677</v>
+        <v>51.83919760696284</v>
       </c>
       <c r="G14">
-        <v>40.45743274529401</v>
+        <v>40.51491014629947</v>
       </c>
       <c r="H14">
-        <v>9.841604682870212</v>
+        <v>40.06599318481386</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>9.852831122700788</v>
       </c>
       <c r="J14">
-        <v>54.01392339790252</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>53.99342967901673</v>
       </c>
       <c r="L14">
-        <v>37.58372508112976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>37.57308749568934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.43365533775828</v>
+        <v>10.43784238346065</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.104981365496978</v>
+        <v>4.094870890915929</v>
       </c>
       <c r="E15">
-        <v>3.93573522235734</v>
+        <v>3.934080016560452</v>
       </c>
       <c r="F15">
-        <v>51.50675058559155</v>
+        <v>51.45917651504999</v>
       </c>
       <c r="G15">
-        <v>40.15553448571993</v>
+        <v>40.21267362350031</v>
       </c>
       <c r="H15">
-        <v>9.89103329667177</v>
+        <v>39.76980033547547</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>9.902061276563769</v>
       </c>
       <c r="J15">
-        <v>53.68189022319173</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>53.66163578230695</v>
       </c>
       <c r="L15">
-        <v>37.34643039328736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>37.33593546179348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.12053263059097</v>
+        <v>10.1245748307909</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.878819625527785</v>
+        <v>3.869210136940642</v>
       </c>
       <c r="E16">
-        <v>4.073694900559766</v>
+        <v>4.071927109825651</v>
       </c>
       <c r="F16">
-        <v>49.33168310280371</v>
+        <v>49.28669486327388</v>
       </c>
       <c r="G16">
-        <v>38.43008307681263</v>
+        <v>38.48524222117801</v>
       </c>
       <c r="H16">
-        <v>10.18024079941759</v>
+        <v>38.07856576649544</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.19016201826308</v>
       </c>
       <c r="J16">
-        <v>51.76471499258006</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>51.74578966213716</v>
       </c>
       <c r="L16">
-        <v>35.9784961787801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>35.96878758037933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.924316457434177</v>
+        <v>9.9282673109374</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.742017486287514</v>
+        <v>3.732707833650348</v>
       </c>
       <c r="E17">
-        <v>4.16405895591031</v>
+        <v>4.162254943087031</v>
       </c>
       <c r="F17">
-        <v>47.99986715865657</v>
+        <v>47.95641296785207</v>
       </c>
       <c r="G17">
-        <v>37.37383935032206</v>
+        <v>37.42775018368308</v>
       </c>
       <c r="H17">
-        <v>10.36251529874704</v>
+        <v>37.04472885929776</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.37178323244829</v>
       </c>
       <c r="J17">
-        <v>50.57441483494816</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>50.55627290976977</v>
       </c>
       <c r="L17">
-        <v>35.13105195716999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>35.12180188944144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.809926938145072</v>
+        <v>9.813824337916758</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.663913527539425</v>
+        <v>3.654774128055307</v>
       </c>
       <c r="E18">
-        <v>4.217845899656574</v>
+        <v>4.216031561404401</v>
       </c>
       <c r="F18">
-        <v>47.2339622760049</v>
+        <v>47.19137455711328</v>
       </c>
       <c r="G18">
-        <v>36.76648493072794</v>
+        <v>36.81966656200285</v>
       </c>
       <c r="H18">
-        <v>10.46898015472941</v>
+        <v>36.45080653497948</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.47788110603936</v>
       </c>
       <c r="J18">
-        <v>49.88410342784785</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>49.86640231981353</v>
       </c>
       <c r="L18">
-        <v>34.64021132020019</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>34.63121760049464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.770932346281118</v>
+        <v>9.774811490567771</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.63755718392049</v>
+        <v>3.628475096993195</v>
       </c>
       <c r="E19">
-        <v>4.236344019780123</v>
+        <v>4.234527853254169</v>
       </c>
       <c r="F19">
-        <v>46.9745915088588</v>
+        <v>46.93229471686018</v>
       </c>
       <c r="G19">
-        <v>36.56081700266319</v>
+        <v>36.61374990843932</v>
       </c>
       <c r="H19">
-        <v>10.5052932495355</v>
+        <v>36.24978232663663</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.51407138731056</v>
       </c>
       <c r="J19">
-        <v>49.6493586565183</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>49.63180528875851</v>
       </c>
       <c r="L19">
-        <v>34.47340198158629</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>34.4644939045455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.945362159371244</v>
+        <v>9.9493228314258</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.756517384895803</v>
+        <v>3.747176053747982</v>
       </c>
       <c r="E20">
-        <v>4.154246013522238</v>
+        <v>4.152444735699839</v>
       </c>
       <c r="F20">
-        <v>48.14161190309945</v>
+        <v>48.09799612166314</v>
       </c>
       <c r="G20">
-        <v>37.48624687211953</v>
+        <v>37.54029177349415</v>
       </c>
       <c r="H20">
-        <v>10.34294039280462</v>
+        <v>37.1546953607039</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.35227694662653</v>
       </c>
       <c r="J20">
-        <v>50.70170239043981</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>50.68347812300868</v>
       </c>
       <c r="L20">
-        <v>35.22160909380908</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>35.21231100769049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.51323561668383</v>
+        <v>10.51745928660277</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.164090547021991</v>
+        <v>4.153847894422735</v>
       </c>
       <c r="E21">
-        <v>3.902162940603218</v>
+        <v>3.900548323241958</v>
       </c>
       <c r="F21">
-        <v>52.06981641157997</v>
+        <v>52.02155546760141</v>
       </c>
       <c r="G21">
-        <v>40.6023109023152</v>
+        <v>40.65994971949286</v>
       </c>
       <c r="H21">
-        <v>9.818014778854826</v>
+        <v>40.20816155757533</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>9.829336945821851</v>
       </c>
       <c r="J21">
-        <v>54.17290690719469</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>54.15229761567766</v>
       </c>
       <c r="L21">
-        <v>37.69738693290256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>37.68668032789849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.87109088581148</v>
+        <v>10.87547823709605</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.438718202562034</v>
+        <v>4.427853501872884</v>
       </c>
       <c r="E22">
-        <v>3.760658128218339</v>
+        <v>3.759294277122545</v>
       </c>
       <c r="F22">
-        <v>54.65708207379786</v>
+        <v>54.60556330415268</v>
       </c>
       <c r="G22">
-        <v>42.65587763045846</v>
+        <v>42.71573649635131</v>
       </c>
       <c r="H22">
-        <v>9.493261574497144</v>
+        <v>42.2251701991241</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.505972577855704</v>
       </c>
       <c r="J22">
-        <v>56.4019034833337</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>56.37960108561165</v>
       </c>
       <c r="L22">
-        <v>39.2938027696459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>39.28207652723253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.68129235608895</v>
+        <v>10.68559310562304</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.291215305273644</v>
+        <v>4.280686415166168</v>
       </c>
       <c r="E23">
-        <v>3.833634148081217</v>
+        <v>3.832122828915856</v>
       </c>
       <c r="F23">
-        <v>53.27331003647026</v>
+        <v>53.22355512681332</v>
       </c>
       <c r="G23">
-        <v>41.55741066033004</v>
+        <v>41.61609824052638</v>
       </c>
       <c r="H23">
-        <v>9.664684654854954</v>
+        <v>41.14583945499668</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.676645561114816</v>
       </c>
       <c r="J23">
-        <v>55.21525975129998</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>55.19387608118495</v>
       </c>
       <c r="L23">
-        <v>38.44325754893524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>38.43208654948101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.935852329351636</v>
+        <v>9.939808565358364</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.749960312923678</v>
+        <v>3.740633310124952</v>
       </c>
       <c r="E24">
-        <v>4.158676796646842</v>
+        <v>4.156874249997118</v>
       </c>
       <c r="F24">
-        <v>48.0775299974615</v>
+        <v>48.03398731856397</v>
       </c>
       <c r="G24">
-        <v>37.4354279168504</v>
+        <v>37.48941224172385</v>
       </c>
       <c r="H24">
-        <v>10.35178503452921</v>
+        <v>37.1049782716338</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.36109053856642</v>
       </c>
       <c r="J24">
-        <v>50.64417446133137</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>50.62598745018961</v>
       </c>
       <c r="L24">
-        <v>35.18067961896654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>35.17140326427504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.073143230385734</v>
+        <v>9.076692824559082</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.187395001520671</v>
+        <v>3.179283092164734</v>
       </c>
       <c r="E25">
-        <v>4.577197288040504</v>
+        <v>4.575470655442536</v>
       </c>
       <c r="F25">
-        <v>42.4723423004459</v>
+        <v>42.43491164241831</v>
       </c>
       <c r="G25">
-        <v>32.99119355110045</v>
+        <v>33.0396807362068</v>
       </c>
       <c r="H25">
-        <v>11.15430896851501</v>
+        <v>32.76942997760778</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.16107566823975</v>
       </c>
       <c r="J25">
-        <v>45.49273440059871</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>45.47763296242039</v>
       </c>
       <c r="L25">
-        <v>31.5281429992647</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>31.52063552808146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.389426399591967</v>
+        <v>7.232912578673785</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.772424599747312</v>
+        <v>4.17518969671323</v>
       </c>
       <c r="E2">
-        <v>4.919778545161843</v>
+        <v>6.2008688097562</v>
       </c>
       <c r="F2">
-        <v>38.24216814017288</v>
+        <v>37.10897449919653</v>
       </c>
       <c r="G2">
-        <v>29.70710855689685</v>
+        <v>2.052952235853945</v>
       </c>
       <c r="H2">
-        <v>29.54266397072296</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.79084837295097</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.096515710127187</v>
       </c>
       <c r="K2">
-        <v>41.45360070942717</v>
+        <v>42.07858381479184</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.68331649187789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>27.94142909782438</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.24051350460432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.891061225322921</v>
+        <v>6.87631723176486</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.645649662809284</v>
+        <v>4.008699543760737</v>
       </c>
       <c r="E3">
-        <v>5.16924029065911</v>
+        <v>6.264806022929774</v>
       </c>
       <c r="F3">
-        <v>35.33417072789323</v>
+        <v>35.54686182668371</v>
       </c>
       <c r="G3">
-        <v>27.39402561380848</v>
+        <v>2.069158803004747</v>
       </c>
       <c r="H3">
-        <v>27.37465117258041</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.23951746253466</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.228560340475636</v>
       </c>
       <c r="K3">
-        <v>38.56469112229214</v>
+        <v>39.08730075941665</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26.65437442885249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>25.954071449212</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.07002056674414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.568990047031438</v>
+        <v>6.652030758070826</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.647992377770583</v>
+        <v>3.906725788979992</v>
       </c>
       <c r="E4">
-        <v>5.329095197962449</v>
+        <v>6.305686757524333</v>
       </c>
       <c r="F4">
-        <v>33.6475411302422</v>
+        <v>34.6411030095073</v>
       </c>
       <c r="G4">
-        <v>25.94253030991002</v>
+        <v>2.079229574273262</v>
       </c>
       <c r="H4">
-        <v>26.14695681805834</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>12.5250800102127</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.310802817394427</v>
       </c>
       <c r="K4">
-        <v>36.70677314969276</v>
+        <v>37.15983303309108</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.35283611962521</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.79055914444831</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.39499596017774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.433717010765037</v>
+        <v>6.55940210983329</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.652228909512309</v>
+        <v>3.865151938555267</v>
       </c>
       <c r="E5">
-        <v>5.395787571055463</v>
+        <v>6.322754335499102</v>
       </c>
       <c r="F5">
-        <v>32.96583543811656</v>
+        <v>34.28512635995609</v>
       </c>
       <c r="G5">
-        <v>25.35533767163443</v>
+        <v>2.083370727090957</v>
       </c>
       <c r="H5">
-        <v>25.64578127796126</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>12.64391092565139</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.344655269188276</v>
       </c>
       <c r="K5">
-        <v>35.92795497376029</v>
+        <v>36.3509857330326</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.80798754050491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24.31570847023249</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.13061558984122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.411012553880727</v>
+        <v>6.543950579426462</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.65311799409762</v>
+        <v>3.858245325647476</v>
       </c>
       <c r="E6">
-        <v>5.406952387396972</v>
+        <v>6.325613080218425</v>
       </c>
       <c r="F6">
-        <v>32.85236667992763</v>
+        <v>34.22680161157346</v>
       </c>
       <c r="G6">
-        <v>25.25996068412567</v>
+        <v>2.084060803036603</v>
       </c>
       <c r="H6">
-        <v>25.56251029591458</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>12.66378976708408</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.350298074973558</v>
       </c>
       <c r="K6">
-        <v>35.79730737055453</v>
+        <v>36.21524938707817</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.71663063368796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24.23619902612225</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.08735372544336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.567181980367213</v>
+        <v>6.650786353139977</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.64803679695154</v>
+        <v>3.906165285160146</v>
       </c>
       <c r="E7">
-        <v>5.329988499812558</v>
+        <v>6.305915282507726</v>
       </c>
       <c r="F7">
-        <v>33.63836569668612</v>
+        <v>34.63624939383753</v>
       </c>
       <c r="G7">
-        <v>25.93447533323795</v>
+        <v>2.079285263775924</v>
       </c>
       <c r="H7">
-        <v>26.14020129139193</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>12.52667271430051</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.311257939241535</v>
       </c>
       <c r="K7">
-        <v>36.69635827960963</v>
+        <v>37.14902003180259</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.34554719493488</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>24.78419947598864</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.39138747399646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.220931044179794</v>
+        <v>7.111126196640019</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.67742657015955</v>
+        <v>4.117678267731701</v>
       </c>
       <c r="E8">
-        <v>5.00431225329227</v>
+        <v>6.22257733346958</v>
       </c>
       <c r="F8">
-        <v>37.24695833950822</v>
+        <v>36.55908191803189</v>
       </c>
       <c r="G8">
-        <v>28.9157226731359</v>
+        <v>2.058519918488132</v>
       </c>
       <c r="H8">
-        <v>28.77968860561558</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.94340551076619</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.141830971244985</v>
       </c>
       <c r="K8">
-        <v>40.47460815342412</v>
+        <v>41.06568610143691</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>27.99502670489182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>27.26840794138233</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.827684226765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.375408781833908</v>
+        <v>7.967711796672226</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.366702957887318</v>
+        <v>4.538920629785067</v>
       </c>
       <c r="E9">
-        <v>4.427723975441262</v>
+        <v>6.072083156073995</v>
       </c>
       <c r="F9">
-        <v>44.32808951853514</v>
+        <v>40.77130062947958</v>
       </c>
       <c r="G9">
-        <v>34.54413608933586</v>
+        <v>2.018378547854403</v>
       </c>
       <c r="H9">
-        <v>34.23228113537713</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>10.8846448080859</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.816540918527854</v>
       </c>
       <c r="K9">
-        <v>47.2456239979078</v>
+        <v>48.05394457802323</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>32.77161014557116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>31.91327139910512</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.00659503369533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.14676832526152</v>
+        <v>8.604285446700539</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.884873593585333</v>
+        <v>4.860084678129155</v>
       </c>
       <c r="E10">
-        <v>4.061887204131071</v>
+        <v>5.969622836881749</v>
       </c>
       <c r="F10">
-        <v>49.43855902321187</v>
+        <v>44.17230758493839</v>
       </c>
       <c r="G10">
-        <v>38.60597676785287</v>
+        <v>1.988619853585846</v>
       </c>
       <c r="H10">
-        <v>38.19667468456649</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10.16967011628348</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.578044774781</v>
       </c>
       <c r="K10">
-        <v>51.88078336799357</v>
+        <v>52.81177889715883</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.06499727670693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>35.07774627466969</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.59410667145285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.48142572579868</v>
+        <v>8.923523141534515</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.127071108189226</v>
+        <v>5.011019997153499</v>
       </c>
       <c r="E11">
-        <v>3.915639969201459</v>
+        <v>5.924889087301541</v>
       </c>
       <c r="F11">
-        <v>51.76649879023363</v>
+        <v>45.79928973957542</v>
       </c>
       <c r="G11">
-        <v>40.45709003289647</v>
+        <v>1.974847419182633</v>
       </c>
       <c r="H11">
-        <v>40.00932290628288</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>9.862220863866154</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.468625653623242</v>
       </c>
       <c r="K11">
-        <v>53.9300326280886</v>
+        <v>54.90702396484453</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>37.52776510276274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>36.47187184944296</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>35.07665428447373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.60586734257551</v>
+        <v>9.042277432413281</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.220147418154826</v>
+        <v>5.069121055962655</v>
       </c>
       <c r="E12">
-        <v>3.864143948461279</v>
+        <v>5.90823685159124</v>
       </c>
       <c r="F12">
-        <v>52.65111797401352</v>
+        <v>46.49257865877146</v>
       </c>
       <c r="G12">
-        <v>41.16071583417597</v>
+        <v>1.969579634715464</v>
       </c>
       <c r="H12">
-        <v>40.69915640455049</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>9.748886413550109</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.426952938559693</v>
       </c>
       <c r="K12">
-        <v>54.69904311517676</v>
+        <v>55.69179330193329</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>38.07781488123762</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>36.9941277985108</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.6450435414537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.57916735339492</v>
+        <v>9.016795154349309</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.200033179255142</v>
+        <v>5.056561276054564</v>
       </c>
       <c r="E13">
-        <v>3.875042257060326</v>
+        <v>5.911810052040516</v>
       </c>
       <c r="F13">
-        <v>52.46041279462421</v>
+        <v>46.34218995633114</v>
       </c>
       <c r="G13">
-        <v>41.00901872834324</v>
+        <v>1.97071682209104</v>
       </c>
       <c r="H13">
-        <v>40.55039633609866</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>9.773147070082363</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.43594038084668</v>
       </c>
       <c r="K13">
-        <v>54.53370563497491</v>
+        <v>55.52314076939054</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>37.95950117855673</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36.88188714959631</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.52231235003354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.49170909605073</v>
+        <v>8.933335423714105</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.13469841208209</v>
+        <v>5.015779414657805</v>
       </c>
       <c r="E14">
-        <v>3.911318602935551</v>
+        <v>5.923513205852814</v>
       </c>
       <c r="F14">
-        <v>51.83919760696284</v>
+        <v>45.85357246376902</v>
       </c>
       <c r="G14">
-        <v>40.51491014629947</v>
+        <v>1.974415208628756</v>
       </c>
       <c r="H14">
-        <v>40.06599318481386</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>9.852831122700788</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.465202658630334</v>
       </c>
       <c r="K14">
-        <v>53.99342967901673</v>
+        <v>54.97175255585876</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>37.57308749568934</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>36.51494621709357</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>35.1232751252624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.43784238346065</v>
+        <v>8.881938451656087</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.094870890915929</v>
+        <v>4.990930880359346</v>
       </c>
       <c r="E15">
-        <v>3.934080016560452</v>
+        <v>5.930719825747724</v>
       </c>
       <c r="F15">
-        <v>51.45917651504999</v>
+        <v>45.5820600442487</v>
       </c>
       <c r="G15">
-        <v>40.21267362350031</v>
+        <v>1.976673120496571</v>
       </c>
       <c r="H15">
-        <v>39.76980033547547</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>9.902061276563769</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.483092189310564</v>
       </c>
       <c r="K15">
-        <v>53.66163578230695</v>
+        <v>54.63292688437909</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>37.33593546179348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>36.2894745454804</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.8797555223563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.1245748307909</v>
+        <v>8.583119493106127</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.869210136940642</v>
+        <v>4.850338028579463</v>
       </c>
       <c r="E16">
-        <v>4.071927109825651</v>
+        <v>5.972585379481334</v>
       </c>
       <c r="F16">
-        <v>49.28669486327388</v>
+        <v>44.06771348501903</v>
       </c>
       <c r="G16">
-        <v>38.48524222117801</v>
+        <v>1.989513680043959</v>
       </c>
       <c r="H16">
-        <v>38.07856576649544</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>10.19016201826308</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.585168410988015</v>
       </c>
       <c r="K16">
-        <v>51.74578966213716</v>
+        <v>52.67356294172999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>35.96878758037933</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>34.98579286886322</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.51432109570885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.9282673109374</v>
+        <v>8.395918024044295</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.732707833650348</v>
+        <v>4.76548731627024</v>
       </c>
       <c r="E17">
-        <v>4.162254943087031</v>
+        <v>5.99875928124107</v>
       </c>
       <c r="F17">
-        <v>47.95641296785207</v>
+        <v>43.16015391217496</v>
       </c>
       <c r="G17">
-        <v>37.42775018368308</v>
+        <v>1.997318682991524</v>
       </c>
       <c r="H17">
-        <v>37.04472885929776</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10.37178323244829</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.647482988030773</v>
       </c>
       <c r="K17">
-        <v>50.55627290976977</v>
+        <v>51.45469079982039</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>35.12180188944144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>34.17495675949533</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.82254315005187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.813824337916758</v>
+        <v>8.305168291204364</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.654774128055307</v>
+        <v>4.717120671751816</v>
       </c>
       <c r="E18">
-        <v>4.216031561404401</v>
+        <v>6.013988955151214</v>
       </c>
       <c r="F18">
-        <v>47.19137455711328</v>
+        <v>42.64554243380761</v>
       </c>
       <c r="G18">
-        <v>36.81966656200285</v>
+        <v>2.001787112742925</v>
       </c>
       <c r="H18">
-        <v>36.45080653497948</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>10.47788110603936</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.683244823672658</v>
       </c>
       <c r="K18">
-        <v>49.86640231981353</v>
+        <v>50.74703218050591</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>34.63121760049464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>33.70425085139766</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.43071764276139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.774811490567771</v>
+        <v>8.274898078251109</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.628475096993195</v>
+        <v>4.7008129769827</v>
       </c>
       <c r="E19">
-        <v>4.234527853254169</v>
+        <v>6.019175123629146</v>
       </c>
       <c r="F19">
-        <v>46.93229471686018</v>
+        <v>42.47253249614914</v>
       </c>
       <c r="G19">
-        <v>36.61374990843932</v>
+        <v>2.003296978799089</v>
       </c>
       <c r="H19">
-        <v>36.24978232663663</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>10.51407138731056</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.695342337564957</v>
       </c>
       <c r="K19">
-        <v>49.63180528875851</v>
+        <v>50.50626321012601</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>34.4644939045455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>33.5441099344103</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.29906132417326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.9493228314258</v>
+        <v>8.415995678372095</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.747176053747982</v>
+        <v>4.774472944468823</v>
       </c>
       <c r="E20">
-        <v>4.152444735699839</v>
+        <v>5.995954794969562</v>
       </c>
       <c r="F20">
-        <v>48.09799612166314</v>
+        <v>43.25598998965985</v>
       </c>
       <c r="G20">
-        <v>37.54029177349415</v>
+        <v>1.996490102470213</v>
       </c>
       <c r="H20">
-        <v>37.1546953607039</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.35227694662653</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.640858458391479</v>
       </c>
       <c r="K20">
-        <v>50.68347812300868</v>
+        <v>51.58511593907038</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>35.21231100769049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>34.26171454586084</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.8955481304283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.51745928660277</v>
+        <v>8.957906827042985</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.153847894422735</v>
+        <v>5.027730089271943</v>
       </c>
       <c r="E21">
-        <v>3.900548323241958</v>
+        <v>5.920067722132484</v>
       </c>
       <c r="F21">
-        <v>52.02155546760141</v>
+        <v>45.99680207531664</v>
       </c>
       <c r="G21">
-        <v>40.65994971949286</v>
+        <v>1.973330496207963</v>
       </c>
       <c r="H21">
-        <v>40.20816155757533</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>9.829336945821851</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.456615016186351</v>
       </c>
       <c r="K21">
-        <v>54.15229761567766</v>
+        <v>55.13393196419666</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>37.68668032789849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>36.62287178237841</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>35.24029088808896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.87547823709605</v>
+        <v>9.299681843669916</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.427853501872884</v>
+        <v>5.19892130191002</v>
       </c>
       <c r="E22">
-        <v>3.759294277122545</v>
+        <v>5.872161528682252</v>
       </c>
       <c r="F22">
-        <v>54.60556330415268</v>
+        <v>48.04372172613207</v>
       </c>
       <c r="G22">
-        <v>42.71573649635131</v>
+        <v>1.957876631370791</v>
       </c>
       <c r="H22">
-        <v>42.2251701991241</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>9.505972577855704</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.334749277316845</v>
       </c>
       <c r="K22">
-        <v>56.37960108561165</v>
+        <v>57.40364689209331</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>39.28207652723253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>38.13351828345193</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.90870947232243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.68559310562304</v>
+        <v>9.118376068986617</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.280686415166168</v>
+        <v>5.106934712939725</v>
       </c>
       <c r="E23">
-        <v>3.832122828915856</v>
+        <v>5.89756712604814</v>
       </c>
       <c r="F23">
-        <v>53.22355512681332</v>
+        <v>46.94506199247837</v>
       </c>
       <c r="G23">
-        <v>41.61609824052638</v>
+        <v>1.966161044051375</v>
       </c>
       <c r="H23">
-        <v>41.14583945499668</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>9.676645561114816</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.399964392265983</v>
       </c>
       <c r="K23">
-        <v>55.19387608118495</v>
+        <v>56.19630178607483</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>38.43208654948101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>37.32989880577218</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.01407579335781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.939808565358364</v>
+        <v>8.406923250225887</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.740633310124952</v>
+        <v>4.770409266835737</v>
       </c>
       <c r="E24">
-        <v>4.156874249997118</v>
+        <v>5.997222137698063</v>
       </c>
       <c r="F24">
-        <v>48.03398731856397</v>
+        <v>43.21264032209846</v>
       </c>
       <c r="G24">
-        <v>37.48941224172385</v>
+        <v>1.996864760837372</v>
       </c>
       <c r="H24">
-        <v>37.1049782716338</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10.36109053856642</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.643853598828426</v>
       </c>
       <c r="K24">
-        <v>50.62598745018961</v>
+        <v>51.52617235880602</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>35.17140326427504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>34.22250557123184</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.86252433400877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.076692824559082</v>
+        <v>7.741369752550288</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.179283092164734</v>
+        <v>4.423566603826566</v>
       </c>
       <c r="E25">
-        <v>4.575470655442536</v>
+        <v>6.111397847187078</v>
       </c>
       <c r="F25">
-        <v>42.43491164241831</v>
+        <v>39.58143117695202</v>
       </c>
       <c r="G25">
-        <v>33.0396807362068</v>
+        <v>2.029233377179156</v>
       </c>
       <c r="H25">
-        <v>32.76942997760778</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>11.16107566823975</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.904148516298047</v>
       </c>
       <c r="K25">
-        <v>45.47763296242039</v>
+        <v>46.23324942356064</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>31.52063552808146</v>
+        <v>30.70277021148028</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.10518228244565</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.232912578673785</v>
+        <v>20.09563806600461</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.17518969671323</v>
+        <v>6.906869614451111</v>
       </c>
       <c r="E2">
-        <v>6.2008688097562</v>
+        <v>14.40645758991687</v>
       </c>
       <c r="F2">
-        <v>37.10897449919653</v>
+        <v>19.79489928812234</v>
       </c>
       <c r="G2">
-        <v>2.052952235853945</v>
+        <v>2.068667694191035</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.41668389218376</v>
       </c>
       <c r="J2">
-        <v>5.096515710127187</v>
+        <v>9.590384193862878</v>
       </c>
       <c r="K2">
-        <v>42.07858381479184</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.2257065410947</v>
       </c>
       <c r="M2">
-        <v>27.94142909782438</v>
+        <v>16.38915243971719</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.24051350460432</v>
+        <v>15.98192623693586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.87631723176486</v>
+        <v>18.82586809537752</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.008699543760737</v>
+        <v>6.849120497348078</v>
       </c>
       <c r="E3">
-        <v>6.264806022929774</v>
+        <v>14.01715457219557</v>
       </c>
       <c r="F3">
-        <v>35.54686182668371</v>
+        <v>19.66835612951828</v>
       </c>
       <c r="G3">
-        <v>2.069158803004747</v>
+        <v>2.075060194021696</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.85509783687194</v>
       </c>
       <c r="J3">
-        <v>5.228560340475636</v>
+        <v>9.372158660767562</v>
       </c>
       <c r="K3">
-        <v>39.08730075941665</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.49799382405442</v>
       </c>
       <c r="M3">
-        <v>25.954071449212</v>
+        <v>15.46387021932256</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.07002056674414</v>
+        <v>15.70097477524515</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.652030758070826</v>
+        <v>18.0033061900397</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.906725788979992</v>
+        <v>6.814652289031111</v>
       </c>
       <c r="E4">
-        <v>6.305686757524333</v>
+        <v>13.7744569240539</v>
       </c>
       <c r="F4">
-        <v>34.6411030095073</v>
+        <v>19.62054201837888</v>
       </c>
       <c r="G4">
-        <v>2.079229574273262</v>
+        <v>2.079103868861556</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.13791157334294</v>
       </c>
       <c r="J4">
-        <v>5.310802817394427</v>
+        <v>9.236828337576847</v>
       </c>
       <c r="K4">
-        <v>37.15983303309108</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.02821168058751</v>
       </c>
       <c r="M4">
-        <v>24.79055914444831</v>
+        <v>14.86852428136074</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.39499596017774</v>
+        <v>15.54731097011195</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.55940210983329</v>
+        <v>17.65736394229858</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.865151938555267</v>
+        <v>6.800861235135458</v>
       </c>
       <c r="E5">
-        <v>6.322754335499102</v>
+        <v>13.67475142952917</v>
       </c>
       <c r="F5">
-        <v>34.28512635995609</v>
+        <v>19.60826221391829</v>
       </c>
       <c r="G5">
-        <v>2.083370727090957</v>
+        <v>2.080782399054427</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.25647323581423</v>
       </c>
       <c r="J5">
-        <v>5.344655269188276</v>
+        <v>9.181401436904709</v>
       </c>
       <c r="K5">
-        <v>36.3509857330326</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.83107534229166</v>
       </c>
       <c r="M5">
-        <v>24.31570847023249</v>
+        <v>14.61921617882073</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.13061558984122</v>
+        <v>15.48934843619656</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.543950579426462</v>
+        <v>17.59927375299889</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.858245325647476</v>
+        <v>6.798586821016644</v>
       </c>
       <c r="E6">
-        <v>6.325613080218425</v>
+        <v>13.65815041528826</v>
       </c>
       <c r="F6">
-        <v>34.22680161157346</v>
+        <v>19.6066488655531</v>
       </c>
       <c r="G6">
-        <v>2.084060803036603</v>
+        <v>2.08106299634079</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.27635741620726</v>
       </c>
       <c r="J6">
-        <v>5.350298074973558</v>
+        <v>9.172182763112254</v>
       </c>
       <c r="K6">
-        <v>36.21524938707817</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.79799972358796</v>
       </c>
       <c r="M6">
-        <v>24.23619902612225</v>
+        <v>14.57741906406289</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.08735372544336</v>
+        <v>15.48000228762192</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.650786353139977</v>
+        <v>17.99868409756153</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.906165285160146</v>
+        <v>6.814465257459239</v>
       </c>
       <c r="E7">
-        <v>6.305915282507726</v>
+        <v>13.77311535648471</v>
       </c>
       <c r="F7">
-        <v>34.63624939383753</v>
+        <v>19.62034766084803</v>
       </c>
       <c r="G7">
-        <v>2.079285263775924</v>
+        <v>2.079126380692846</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.13949726086616</v>
       </c>
       <c r="J7">
-        <v>5.311257939241535</v>
+        <v>9.236081880597597</v>
       </c>
       <c r="K7">
-        <v>37.14902003180259</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.02557597425443</v>
       </c>
       <c r="M7">
-        <v>24.78419947598864</v>
+        <v>14.8651889342765</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.39138747399646</v>
+        <v>15.54651053428448</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.111126196640019</v>
+        <v>19.66675107833733</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.117678267731701</v>
+        <v>6.886755878399829</v>
       </c>
       <c r="E8">
-        <v>6.22257733346958</v>
+        <v>14.27305405818189</v>
       </c>
       <c r="F8">
-        <v>36.55908191803189</v>
+        <v>19.74488533963804</v>
       </c>
       <c r="G8">
-        <v>2.058519918488132</v>
+        <v>2.070847735617464</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.56494674530048</v>
       </c>
       <c r="J8">
-        <v>5.141830971244985</v>
+        <v>9.515451748844667</v>
       </c>
       <c r="K8">
-        <v>41.06568610143691</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.97959693360889</v>
       </c>
       <c r="M8">
-        <v>27.26840794138233</v>
+        <v>16.07584019081144</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.827684226765</v>
+        <v>15.88110094922544</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.967711796672226</v>
+        <v>22.59636317714012</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.538920629785067</v>
+        <v>7.036115770057509</v>
       </c>
       <c r="E9">
-        <v>6.072083156073995</v>
+        <v>15.21965786521644</v>
       </c>
       <c r="F9">
-        <v>40.77130062947958</v>
+        <v>20.23880020939467</v>
       </c>
       <c r="G9">
-        <v>2.018378547854403</v>
+        <v>2.055513276839932</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.552574889047</v>
       </c>
       <c r="J9">
-        <v>4.816540918527854</v>
+        <v>10.05029725803993</v>
       </c>
       <c r="K9">
-        <v>48.05394457802323</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.69333454960674</v>
       </c>
       <c r="M9">
-        <v>31.91327139910512</v>
+        <v>18.22931553199403</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.00659503369533</v>
+        <v>16.6893877036056</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.604285446700539</v>
+        <v>24.54082576594045</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.860084678129155</v>
+        <v>7.150165828168249</v>
       </c>
       <c r="E10">
-        <v>5.969622836881749</v>
+        <v>15.8889024637541</v>
       </c>
       <c r="F10">
-        <v>44.17230758493839</v>
+        <v>20.76907800179152</v>
       </c>
       <c r="G10">
-        <v>1.988619853585846</v>
+        <v>2.044733791761965</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.88909703261822</v>
       </c>
       <c r="J10">
-        <v>4.578044774781</v>
+        <v>10.43242158034487</v>
       </c>
       <c r="K10">
-        <v>52.81177889715883</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.88658392578548</v>
       </c>
       <c r="M10">
-        <v>35.07774627466969</v>
+        <v>19.71788085860468</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.59410667145285</v>
+        <v>17.37849075994067</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.923523141534515</v>
+        <v>25.38064397926177</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.011019997153499</v>
+        <v>7.202929434365315</v>
       </c>
       <c r="E11">
-        <v>5.924889087301541</v>
+        <v>16.18666471412692</v>
       </c>
       <c r="F11">
-        <v>45.79928973957542</v>
+        <v>21.04931137847424</v>
       </c>
       <c r="G11">
-        <v>1.974847419182633</v>
+        <v>2.039920786765502</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.60775291385413</v>
       </c>
       <c r="J11">
-        <v>4.468625653623242</v>
+        <v>10.6033784077031</v>
       </c>
       <c r="K11">
-        <v>54.90702396484453</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.40115047550943</v>
       </c>
       <c r="M11">
-        <v>36.47187184944296</v>
+        <v>20.39747162038792</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.07665428447373</v>
+        <v>17.71294574639179</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.042277432413281</v>
+        <v>25.6922750055422</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.069121055962655</v>
+        <v>7.223032280247805</v>
       </c>
       <c r="E12">
-        <v>5.90823685159124</v>
+        <v>16.29838817364493</v>
       </c>
       <c r="F12">
-        <v>46.49257865877146</v>
+        <v>21.16121500715316</v>
       </c>
       <c r="G12">
-        <v>1.969579634715464</v>
+        <v>2.038109933502183</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.50447751934852</v>
       </c>
       <c r="J12">
-        <v>4.426952938559693</v>
+        <v>10.66766361037819</v>
       </c>
       <c r="K12">
-        <v>55.69179330193329</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.59198573631652</v>
       </c>
       <c r="M12">
-        <v>36.9941277985108</v>
+        <v>20.64951519612677</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.6450435414537</v>
+        <v>17.84262367113996</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.016795154349309</v>
+        <v>25.62544310252707</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.056561276054564</v>
+        <v>7.21869738824576</v>
       </c>
       <c r="E13">
-        <v>5.911810052040516</v>
+        <v>16.27437349947002</v>
       </c>
       <c r="F13">
-        <v>46.34218995633114</v>
+        <v>21.13685472183872</v>
       </c>
       <c r="G13">
-        <v>1.97071682209104</v>
+        <v>2.03849943349636</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.52656888194936</v>
       </c>
       <c r="J13">
-        <v>4.43594038084668</v>
+        <v>10.65383933987666</v>
       </c>
       <c r="K13">
-        <v>55.52314076939054</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.55106401965571</v>
       </c>
       <c r="M13">
-        <v>36.88188714959631</v>
+        <v>20.59546803226764</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.52231235003354</v>
+        <v>17.81456042816544</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.933335423714105</v>
+        <v>25.40640983732171</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.015779414657805</v>
+        <v>7.204580876079802</v>
       </c>
       <c r="E14">
-        <v>5.923513205852814</v>
+        <v>16.19587734450201</v>
       </c>
       <c r="F14">
-        <v>45.85357246376902</v>
+        <v>21.05840089321592</v>
       </c>
       <c r="G14">
-        <v>1.974415208628756</v>
+        <v>2.03977157959878</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.59918894750989</v>
       </c>
       <c r="J14">
-        <v>4.465202658630334</v>
+        <v>10.60867646595098</v>
       </c>
       <c r="K14">
-        <v>54.97175255585876</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>15.41693091615702</v>
       </c>
       <c r="M14">
-        <v>36.51494621709357</v>
+        <v>20.41831334549883</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.1232751252624</v>
+        <v>17.72355370594208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.881938451656087</v>
+        <v>25.27141490664463</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.990930880359346</v>
+        <v>7.195949932070882</v>
       </c>
       <c r="E15">
-        <v>5.930719825747724</v>
+        <v>16.14765972881096</v>
       </c>
       <c r="F15">
-        <v>45.5820600442487</v>
+        <v>21.01110386494922</v>
       </c>
       <c r="G15">
-        <v>1.976673120496571</v>
+        <v>2.04055229252129</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.64410628399745</v>
       </c>
       <c r="J15">
-        <v>4.483092189310564</v>
+        <v>10.58095289469451</v>
       </c>
       <c r="K15">
-        <v>54.63292688437909</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>15.3342483272434</v>
       </c>
       <c r="M15">
-        <v>36.2894745454804</v>
+        <v>20.30911209627945</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.8797555223563</v>
+        <v>17.66820395537839</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.583119493106127</v>
+        <v>24.485044971486</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.850338028579463</v>
+        <v>7.146734950615602</v>
       </c>
       <c r="E16">
-        <v>5.972585379481334</v>
+        <v>15.86930219909033</v>
       </c>
       <c r="F16">
-        <v>44.06771348501903</v>
+        <v>20.75156467383043</v>
       </c>
       <c r="G16">
-        <v>1.989513680043959</v>
+        <v>2.045050047471277</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.90792156459601</v>
       </c>
       <c r="J16">
-        <v>4.585168410988015</v>
+        <v>10.42118786970199</v>
       </c>
       <c r="K16">
-        <v>52.67356294172999</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>14.85239086920105</v>
       </c>
       <c r="M16">
-        <v>34.98579286886322</v>
+        <v>19.67272293218238</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.51432109570885</v>
+        <v>17.35705642308173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.395918024044295</v>
+        <v>23.99120302600192</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.76548731627024</v>
+        <v>7.116765594278779</v>
       </c>
       <c r="E17">
-        <v>5.99875928124107</v>
+        <v>15.69677357390549</v>
       </c>
       <c r="F17">
-        <v>43.16015391217496</v>
+        <v>20.60247025102742</v>
       </c>
       <c r="G17">
-        <v>1.997318682991524</v>
+        <v>2.047831591168721</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.07521771273884</v>
       </c>
       <c r="J17">
-        <v>4.647482988030773</v>
+        <v>10.32241187536165</v>
       </c>
       <c r="K17">
-        <v>51.45469079982039</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.54958047886916</v>
       </c>
       <c r="M17">
-        <v>34.17495675949533</v>
+        <v>19.27281507343276</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.82254315005187</v>
+        <v>17.17155889221916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.305168291204364</v>
+        <v>23.70294499652137</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.717120671751816</v>
+        <v>7.099611213936356</v>
       </c>
       <c r="E18">
-        <v>6.013988955151214</v>
+        <v>15.59691456829794</v>
       </c>
       <c r="F18">
-        <v>42.64554243380761</v>
+        <v>20.5203778836446</v>
       </c>
       <c r="G18">
-        <v>2.001787112742925</v>
+        <v>2.049440076728327</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.17334700423459</v>
       </c>
       <c r="J18">
-        <v>4.683244823672658</v>
+        <v>10.26533013397642</v>
       </c>
       <c r="K18">
-        <v>50.74703218050591</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.37275026859755</v>
       </c>
       <c r="M18">
-        <v>33.70425085139766</v>
+        <v>19.0496339704587</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.43071764276139</v>
+        <v>17.06683992443941</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.274898078251109</v>
+        <v>23.60462105984068</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.7008129769827</v>
+        <v>7.093817472282312</v>
       </c>
       <c r="E19">
-        <v>6.019175123629146</v>
+        <v>15.56299901324897</v>
       </c>
       <c r="F19">
-        <v>42.47253249614914</v>
+        <v>20.49320610773972</v>
       </c>
       <c r="G19">
-        <v>2.003296978799089</v>
+        <v>2.049986200117245</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.20689025050299</v>
       </c>
       <c r="J19">
-        <v>4.695342337564957</v>
+        <v>10.24595840936399</v>
       </c>
       <c r="K19">
-        <v>50.50626321012601</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.31242023406457</v>
       </c>
       <c r="M19">
-        <v>33.5441099344103</v>
+        <v>18.97661809475409</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.29906132417326</v>
+        <v>17.0317226107113</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.415995678372095</v>
+        <v>24.04420912519719</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.774472944468823</v>
+        <v>7.119947306865686</v>
       </c>
       <c r="E20">
-        <v>5.995954794969562</v>
+        <v>15.71520478834586</v>
       </c>
       <c r="F20">
-        <v>43.25598998965985</v>
+        <v>20.61796116187836</v>
       </c>
       <c r="G20">
-        <v>1.996490102470213</v>
+        <v>2.047534608590414</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.05720946030366</v>
       </c>
       <c r="J20">
-        <v>4.640858458391479</v>
+        <v>10.33295482596962</v>
       </c>
       <c r="K20">
-        <v>51.58511593907038</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.58209034343285</v>
       </c>
       <c r="M20">
-        <v>34.26171454586084</v>
+        <v>19.31574879620763</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.8955481304283</v>
+        <v>17.19110100593361</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.957906827042985</v>
+        <v>25.47091825102814</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.027730089271943</v>
+        <v>7.208723945994593</v>
       </c>
       <c r="E21">
-        <v>5.920067722132484</v>
+        <v>16.21896212001923</v>
       </c>
       <c r="F21">
-        <v>45.99680207531664</v>
+        <v>21.08128639599777</v>
       </c>
       <c r="G21">
-        <v>1.973330496207963</v>
+        <v>2.03939761210392</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.57776727549108</v>
       </c>
       <c r="J21">
-        <v>4.456615016186351</v>
+        <v>10.62195446573026</v>
       </c>
       <c r="K21">
-        <v>55.13393196419666</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.4564378028782</v>
       </c>
       <c r="M21">
-        <v>36.62287178237841</v>
+        <v>20.47049143197226</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.24029088808896</v>
+        <v>17.7502023568779</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.299681843669916</v>
+        <v>26.37083356964969</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.19892130191002</v>
+        <v>7.267456784470077</v>
       </c>
       <c r="E22">
-        <v>5.872161528682252</v>
+        <v>16.54215095360465</v>
       </c>
       <c r="F22">
-        <v>48.04372172613207</v>
+        <v>21.41788188216355</v>
       </c>
       <c r="G22">
-        <v>1.957876631370791</v>
+        <v>2.034147286913423</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.28363697015683</v>
       </c>
       <c r="J22">
-        <v>4.334749277316845</v>
+        <v>10.80818035082398</v>
       </c>
       <c r="K22">
-        <v>57.40364689209331</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.00446571102331</v>
       </c>
       <c r="M22">
-        <v>38.13351828345193</v>
+        <v>21.19430291059604</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.90870947232243</v>
+        <v>18.13325631671639</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.118376068986617</v>
+        <v>25.89173068398753</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.106934712939725</v>
+        <v>7.236046000070884</v>
       </c>
       <c r="E23">
-        <v>5.89756712604814</v>
+        <v>16.37023349395944</v>
       </c>
       <c r="F23">
-        <v>46.94506199247837</v>
+        <v>21.23509142347281</v>
       </c>
       <c r="G23">
-        <v>1.966161044051375</v>
+        <v>2.036943751543034</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.43874115374632</v>
       </c>
       <c r="J23">
-        <v>4.399964392265983</v>
+        <v>10.70904252731267</v>
       </c>
       <c r="K23">
-        <v>56.19630178607483</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.71409979157537</v>
       </c>
       <c r="M23">
-        <v>37.32989880577218</v>
+        <v>20.81079752937427</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.01407579335781</v>
+        <v>17.92719506608901</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.406923250225887</v>
+        <v>24.02025859428052</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.770409266835737</v>
+        <v>7.11850861940048</v>
       </c>
       <c r="E24">
-        <v>5.997222137698063</v>
+        <v>15.70687411762795</v>
       </c>
       <c r="F24">
-        <v>43.21264032209846</v>
+        <v>20.61094644675369</v>
       </c>
       <c r="G24">
-        <v>1.996864760837372</v>
+        <v>2.047668845227796</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.06534494545684</v>
       </c>
       <c r="J24">
-        <v>4.643853598828426</v>
+        <v>10.32818927104482</v>
       </c>
       <c r="K24">
-        <v>51.52617235880602</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.56740117280148</v>
       </c>
       <c r="M24">
-        <v>34.22250557123184</v>
+        <v>19.29634971955515</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.86252433400877</v>
+        <v>17.18226001792002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.741369752550288</v>
+        <v>21.84042167198083</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.423566603826566</v>
+        <v>6.994930457085359</v>
       </c>
       <c r="E25">
-        <v>6.111397847187078</v>
+        <v>14.9678102866153</v>
       </c>
       <c r="F25">
-        <v>39.58143117695202</v>
+        <v>20.07677572684358</v>
       </c>
       <c r="G25">
-        <v>2.029233377179156</v>
+        <v>2.059571446517429</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.81323651235507</v>
       </c>
       <c r="J25">
-        <v>4.904148516298047</v>
+        <v>9.90731398376175</v>
       </c>
       <c r="K25">
-        <v>46.23324942356064</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.22971977336039</v>
       </c>
       <c r="M25">
-        <v>30.70277021148028</v>
+        <v>17.67088963408131</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.10518228244565</v>
+        <v>16.45412110965323</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.09563806600461</v>
+        <v>17.17899368645011</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.906869614451111</v>
+        <v>9.84383232753013</v>
       </c>
       <c r="E2">
-        <v>14.40645758991687</v>
+        <v>16.03202598371829</v>
       </c>
       <c r="F2">
-        <v>19.79489928812234</v>
+        <v>31.85767197334945</v>
       </c>
       <c r="G2">
-        <v>2.068667694191035</v>
+        <v>3.645402074045877</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.41668389218376</v>
+        <v>25.83248016663205</v>
       </c>
       <c r="J2">
-        <v>9.590384193862878</v>
+        <v>11.43983118652399</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.2257065410947</v>
+        <v>11.76141974793471</v>
       </c>
       <c r="M2">
-        <v>16.38915243971719</v>
+        <v>17.06442421385967</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.98192623693586</v>
+        <v>24.11367487535943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82586809537752</v>
+        <v>16.72307153153398</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.849120497348078</v>
+        <v>9.842262796629237</v>
       </c>
       <c r="E3">
-        <v>14.01715457219557</v>
+        <v>15.93477218845757</v>
       </c>
       <c r="F3">
-        <v>19.66835612951828</v>
+        <v>32.01102044269985</v>
       </c>
       <c r="G3">
-        <v>2.075060194021696</v>
+        <v>3.647862164162222</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.85509783687194</v>
+        <v>26.01299057684312</v>
       </c>
       <c r="J3">
-        <v>9.372158660767562</v>
+        <v>11.39073110077423</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.49799382405442</v>
+        <v>11.53563854483479</v>
       </c>
       <c r="M3">
-        <v>15.46387021932256</v>
+        <v>16.8009781060472</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.70097477524515</v>
+        <v>24.18808299262954</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.0033061900397</v>
+        <v>16.43691650426402</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.814652289031111</v>
+        <v>9.84198624809228</v>
       </c>
       <c r="E4">
-        <v>13.7744569240539</v>
+        <v>15.87579671440022</v>
       </c>
       <c r="F4">
-        <v>19.62054201837888</v>
+        <v>32.11498289667441</v>
       </c>
       <c r="G4">
-        <v>2.079103868861556</v>
+        <v>3.649453320375299</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>16.13791157334294</v>
+        <v>26.13025478076035</v>
       </c>
       <c r="J4">
-        <v>9.236828337576847</v>
+        <v>11.36115144133652</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.02821168058751</v>
+        <v>11.39501014264128</v>
       </c>
       <c r="M4">
-        <v>14.86852428136074</v>
+        <v>16.63762204534032</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.54731097011195</v>
+        <v>24.2410198246343</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.65736394229858</v>
+        <v>16.31888802499297</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.800861235135458</v>
+        <v>9.842047369690899</v>
       </c>
       <c r="E5">
-        <v>13.67475142952917</v>
+        <v>15.85196515354093</v>
       </c>
       <c r="F5">
-        <v>19.60826221391829</v>
+        <v>32.15980309975418</v>
       </c>
       <c r="G5">
-        <v>2.080782399054427</v>
+        <v>3.650122076119619</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.25647323581423</v>
+        <v>26.1796595167226</v>
       </c>
       <c r="J5">
-        <v>9.181401436904709</v>
+        <v>11.34924693629256</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.83107534229166</v>
+        <v>11.33726274248237</v>
       </c>
       <c r="M5">
-        <v>14.61921617882073</v>
+        <v>16.57071519141923</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.48934843619656</v>
+        <v>24.26440709029335</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.59927375299889</v>
+        <v>16.29920827365999</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.798586821016644</v>
+        <v>9.842068046641817</v>
       </c>
       <c r="E6">
-        <v>13.65815041528826</v>
+        <v>15.84802055864174</v>
       </c>
       <c r="F6">
-        <v>19.6066488655531</v>
+        <v>32.16739338745937</v>
       </c>
       <c r="G6">
-        <v>2.08106299634079</v>
+        <v>3.650234353342264</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.27635741620726</v>
+        <v>26.18796094904112</v>
       </c>
       <c r="J6">
-        <v>9.172182763112254</v>
+        <v>11.34727941903941</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.79799972358796</v>
+        <v>11.32764910345379</v>
       </c>
       <c r="M6">
-        <v>14.57741906406289</v>
+        <v>16.55958684822972</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.48000228762192</v>
+        <v>24.26839991156567</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.99868409756153</v>
+        <v>16.43533027340115</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.814465257459239</v>
+        <v>9.841986367269918</v>
       </c>
       <c r="E7">
-        <v>13.77311535648471</v>
+        <v>15.87547447759882</v>
       </c>
       <c r="F7">
-        <v>19.62034766084803</v>
+        <v>32.11557743364936</v>
       </c>
       <c r="G7">
-        <v>2.079126380692846</v>
+        <v>3.64946225697829</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>16.13949726086616</v>
+        <v>26.13091451422757</v>
       </c>
       <c r="J7">
-        <v>9.236081880597597</v>
+        <v>11.36099027928283</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.02557597425443</v>
+        <v>11.39423303958532</v>
       </c>
       <c r="M7">
-        <v>14.8651889342765</v>
+        <v>16.63672099872906</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.54651053428448</v>
+        <v>24.24132789524183</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.66675107833733</v>
+        <v>17.02316631854674</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.886755878399829</v>
+        <v>9.843149156971217</v>
       </c>
       <c r="E8">
-        <v>14.27305405818189</v>
+        <v>15.99834901600979</v>
       </c>
       <c r="F8">
-        <v>19.74488533963804</v>
+        <v>31.90850469538621</v>
       </c>
       <c r="G8">
-        <v>2.070847735617464</v>
+        <v>3.646233614011429</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.56494674530048</v>
+        <v>25.89338660892408</v>
       </c>
       <c r="J8">
-        <v>9.515451748844667</v>
+        <v>11.42278760040132</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.97959693360889</v>
+        <v>11.68402166269689</v>
       </c>
       <c r="M8">
-        <v>16.07584019081144</v>
+        <v>16.97395797286022</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.88110094922544</v>
+        <v>24.13782141011171</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.59636317714012</v>
+        <v>18.12068573458077</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.036115770057509</v>
+        <v>9.850836425281736</v>
       </c>
       <c r="E9">
-        <v>15.21965786521644</v>
+        <v>16.24447085262033</v>
       </c>
       <c r="F9">
-        <v>20.23880020939467</v>
+        <v>31.58072899571033</v>
       </c>
       <c r="G9">
-        <v>2.055513276839932</v>
+        <v>3.640539158761563</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.552574889047</v>
+        <v>25.47853879469604</v>
       </c>
       <c r="J9">
-        <v>10.05029725803993</v>
+        <v>11.54818384441733</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.69333454960674</v>
+        <v>12.23383082159377</v>
       </c>
       <c r="M9">
-        <v>18.22931553199403</v>
+        <v>17.61984647648524</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.6893877036056</v>
+        <v>23.99270645041128</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.54082576594045</v>
+        <v>18.88616893633917</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.150165828168249</v>
+        <v>9.859719817664248</v>
       </c>
       <c r="E10">
-        <v>15.8889024637541</v>
+        <v>16.42750297231205</v>
       </c>
       <c r="F10">
-        <v>20.76907800179152</v>
+        <v>31.38829606131432</v>
       </c>
       <c r="G10">
-        <v>2.044733791761965</v>
+        <v>3.636739483884431</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.88909703261822</v>
+        <v>25.20470427896006</v>
       </c>
       <c r="J10">
-        <v>10.43242158034487</v>
+        <v>11.6424798318651</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.88658392578548</v>
+        <v>12.62320390273853</v>
       </c>
       <c r="M10">
-        <v>19.71788085860468</v>
+        <v>18.08142469076117</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.37849075994067</v>
+        <v>23.92179111457305</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.38064397926177</v>
+        <v>19.22421009539929</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.202929434365315</v>
+        <v>9.864450304936403</v>
       </c>
       <c r="E11">
-        <v>16.18666471412692</v>
+        <v>16.51104488539823</v>
       </c>
       <c r="F11">
-        <v>21.04931137847424</v>
+        <v>31.31139464312317</v>
       </c>
       <c r="G11">
-        <v>2.039920786765502</v>
+        <v>3.635093403462218</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.60775291385413</v>
+        <v>25.08683218033361</v>
       </c>
       <c r="J11">
-        <v>10.6033784077031</v>
+        <v>11.68576080127717</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.40115047550943</v>
+        <v>12.79653128469236</v>
       </c>
       <c r="M11">
-        <v>20.39747162038792</v>
+        <v>18.2878852587092</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.71294574639179</v>
+        <v>23.89736157066051</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.6922750055422</v>
+        <v>19.35065605495111</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.223032280247805</v>
+        <v>9.866339558322897</v>
       </c>
       <c r="E12">
-        <v>16.29838817364493</v>
+        <v>16.54270295329761</v>
       </c>
       <c r="F12">
-        <v>21.16121500715316</v>
+        <v>31.28381444455076</v>
       </c>
       <c r="G12">
-        <v>2.038109933502183</v>
+        <v>3.634481857674093</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.50447751934852</v>
+        <v>25.04315902862781</v>
       </c>
       <c r="J12">
-        <v>10.66766361037819</v>
+        <v>11.70219800905394</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.59198573631652</v>
+        <v>12.86156967558975</v>
       </c>
       <c r="M12">
-        <v>20.64951519612677</v>
+        <v>18.36550507791934</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.84262367113996</v>
+        <v>23.88924222684423</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.62544310252707</v>
+        <v>19.32349464051223</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.21869738824576</v>
+        <v>9.865928338350363</v>
       </c>
       <c r="E13">
-        <v>16.27437349947002</v>
+        <v>16.53588409965122</v>
       </c>
       <c r="F13">
-        <v>21.13685472183872</v>
+        <v>31.28968563805839</v>
       </c>
       <c r="G13">
-        <v>2.03849943349636</v>
+        <v>3.634613041649743</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.52656888194936</v>
+        <v>25.0525220242377</v>
       </c>
       <c r="J13">
-        <v>10.65383933987666</v>
+        <v>11.69865596739865</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.55106401965571</v>
+        <v>12.84758981185894</v>
       </c>
       <c r="M13">
-        <v>20.59546803226764</v>
+        <v>18.34881415023344</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.81456042816544</v>
+        <v>23.89094046254147</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.40640983732171</v>
+        <v>19.23464473646822</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.204580876079802</v>
+        <v>9.864603779514189</v>
       </c>
       <c r="E14">
-        <v>16.19587734450201</v>
+        <v>16.51364906268819</v>
       </c>
       <c r="F14">
-        <v>21.05840089321592</v>
+        <v>31.3090946634584</v>
       </c>
       <c r="G14">
-        <v>2.03977157959878</v>
+        <v>3.635042855300509</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.59918894750989</v>
+        <v>25.08321987718854</v>
       </c>
       <c r="J14">
-        <v>10.60867646595098</v>
+        <v>11.68711219003173</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.41693091615702</v>
+        <v>12.80189427305029</v>
       </c>
       <c r="M14">
-        <v>20.41831334549883</v>
+        <v>18.29428267492245</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.72355370594208</v>
+        <v>23.8966708787314</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.27141490664463</v>
+        <v>19.18001529511059</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.195949932070882</v>
+        <v>9.863805164691053</v>
       </c>
       <c r="E15">
-        <v>16.14765972881096</v>
+        <v>16.50003187442011</v>
       </c>
       <c r="F15">
-        <v>21.01110386494922</v>
+        <v>31.3211842193459</v>
       </c>
       <c r="G15">
-        <v>2.04055229252129</v>
+        <v>3.635307662051316</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.64410628399745</v>
+        <v>25.10214852606877</v>
       </c>
       <c r="J15">
-        <v>10.58095289469451</v>
+        <v>11.68004726652446</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.3342483272434</v>
+        <v>12.77382525644138</v>
       </c>
       <c r="M15">
-        <v>20.30911209627945</v>
+        <v>18.26080569368538</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.66820395537839</v>
+        <v>23.90032844639159</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.485044971486</v>
+        <v>18.86386361739981</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.146734950615602</v>
+        <v>9.859424438383224</v>
       </c>
       <c r="E16">
-        <v>15.86930219909033</v>
+        <v>16.42204743005279</v>
       </c>
       <c r="F16">
-        <v>20.75156467383043</v>
+        <v>31.39353675314172</v>
       </c>
       <c r="G16">
-        <v>2.045050047471277</v>
+        <v>3.636848712165926</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.90792156459601</v>
+        <v>25.21254220331412</v>
       </c>
       <c r="J16">
-        <v>10.42118786970199</v>
+        <v>11.63965840955179</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.85239086920105</v>
+        <v>12.61179569272587</v>
       </c>
       <c r="M16">
-        <v>19.67272293218238</v>
+        <v>18.06785636523744</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.35705642308173</v>
+        <v>23.92354570217967</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.99120302600192</v>
+        <v>18.66723386307352</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.116765594278779</v>
+        <v>9.856912718974577</v>
       </c>
       <c r="E17">
-        <v>15.69677357390549</v>
+        <v>16.37426556850805</v>
       </c>
       <c r="F17">
-        <v>20.60247025102742</v>
+        <v>31.44065513420163</v>
       </c>
       <c r="G17">
-        <v>2.047831591168721</v>
+        <v>3.637815160023186</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.07521771273884</v>
+        <v>25.28197989504544</v>
       </c>
       <c r="J17">
-        <v>10.32241187536165</v>
+        <v>11.61497432987946</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.54958047886916</v>
+        <v>12.5113855338236</v>
       </c>
       <c r="M17">
-        <v>19.27281507343276</v>
+        <v>17.94854683420857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.17155889221916</v>
+        <v>23.93979844995181</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.70294499652137</v>
+        <v>18.55318464750045</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.099611213936356</v>
+        <v>9.85553300704429</v>
       </c>
       <c r="E18">
-        <v>15.59691456829794</v>
+        <v>16.34681008859752</v>
       </c>
       <c r="F18">
-        <v>20.5203778836446</v>
+        <v>31.46875697039628</v>
       </c>
       <c r="G18">
-        <v>2.049440076728327</v>
+        <v>3.638378795799737</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.17334700423459</v>
+        <v>25.32254895440751</v>
       </c>
       <c r="J18">
-        <v>10.26533013397642</v>
+        <v>11.60081343044169</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.37275026859755</v>
+        <v>12.45327737016322</v>
       </c>
       <c r="M18">
-        <v>19.0496339704587</v>
+        <v>17.87959567234967</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.06683992443941</v>
+        <v>23.94988332122891</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.60462105984068</v>
+        <v>18.51440903423517</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.093817472282312</v>
+        <v>9.855077054195524</v>
       </c>
       <c r="E19">
-        <v>15.56299901324897</v>
+        <v>16.3375193760305</v>
       </c>
       <c r="F19">
-        <v>20.49320610773972</v>
+        <v>31.47844327890351</v>
       </c>
       <c r="G19">
-        <v>2.049986200117245</v>
+        <v>3.63857096794773</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.20689025050299</v>
+        <v>25.33639321974636</v>
       </c>
       <c r="J19">
-        <v>10.24595840936399</v>
+        <v>11.59602533688631</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.31242023406457</v>
+        <v>12.43354357984391</v>
       </c>
       <c r="M19">
-        <v>18.97661809475409</v>
+        <v>17.85619553125511</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.0317226107113</v>
+        <v>23.95342423564516</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.04420912519719</v>
+        <v>18.68826481204642</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.119947306865686</v>
+        <v>9.857173381111473</v>
       </c>
       <c r="E20">
-        <v>15.71520478834586</v>
+        <v>16.37934932314419</v>
       </c>
       <c r="F20">
-        <v>20.61796116187836</v>
+        <v>31.43553566354026</v>
       </c>
       <c r="G20">
-        <v>2.047534608590414</v>
+        <v>3.637711477258581</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.05720946030366</v>
+        <v>25.27452290101123</v>
       </c>
       <c r="J20">
-        <v>10.33295482596962</v>
+        <v>11.61759824682025</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.58209034343285</v>
+        <v>12.52211147255305</v>
       </c>
       <c r="M20">
-        <v>19.31574879620763</v>
+        <v>17.96128185161433</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.19110100593361</v>
+        <v>23.93799202649246</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.47091825102814</v>
+        <v>19.26078526521742</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.208723945994593</v>
+        <v>9.864990186811387</v>
       </c>
       <c r="E21">
-        <v>16.21896212001923</v>
+        <v>16.52017956045982</v>
       </c>
       <c r="F21">
-        <v>21.08128639599777</v>
+        <v>31.30335186150879</v>
       </c>
       <c r="G21">
-        <v>2.03939761210392</v>
+        <v>3.634916289146327</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.57776727549108</v>
+        <v>25.07417705617809</v>
       </c>
       <c r="J21">
-        <v>10.62195446573026</v>
+        <v>11.69050164632867</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.4564378028782</v>
+        <v>12.81533274694627</v>
       </c>
       <c r="M21">
-        <v>20.47049143197226</v>
+        <v>18.31031559364713</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.7502023568779</v>
+        <v>23.89495696399788</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.37083356964969</v>
+        <v>19.62581137918558</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.267456784470077</v>
+        <v>9.870669095988735</v>
       </c>
       <c r="E22">
-        <v>16.54215095360465</v>
+        <v>16.61234357976426</v>
       </c>
       <c r="F22">
-        <v>21.41788188216355</v>
+        <v>31.22594737455116</v>
       </c>
       <c r="G22">
-        <v>2.034147286913423</v>
+        <v>3.633158160085003</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.28363697015683</v>
+        <v>24.94884926226847</v>
       </c>
       <c r="J22">
-        <v>10.80818035082398</v>
+        <v>11.73842230145364</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.00446571102331</v>
+        <v>13.00346932439382</v>
       </c>
       <c r="M22">
-        <v>21.19430291059604</v>
+        <v>18.53512715028513</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.13325631671639</v>
+        <v>23.87342898495979</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.89173068398753</v>
+        <v>19.43185749138867</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.236046000070884</v>
+        <v>9.867586391592823</v>
       </c>
       <c r="E23">
-        <v>16.37023349395944</v>
+        <v>16.56314845226962</v>
       </c>
       <c r="F23">
-        <v>21.23509142347281</v>
+        <v>31.26643388395128</v>
       </c>
       <c r="G23">
-        <v>2.036943751543034</v>
+        <v>3.63409024188205</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.43874115374632</v>
+        <v>25.01522589370262</v>
       </c>
       <c r="J23">
-        <v>10.70904252731267</v>
+        <v>11.71282364539021</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>15.71409979157537</v>
+        <v>12.90339341903083</v>
       </c>
       <c r="M23">
-        <v>20.81079752937427</v>
+        <v>18.41546129361615</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.92719506608901</v>
+        <v>23.88431348117657</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.02025859428052</v>
+        <v>18.67875984009478</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.11850861940048</v>
+        <v>9.857055335365597</v>
       </c>
       <c r="E24">
-        <v>15.70687411762795</v>
+        <v>16.37705090977556</v>
       </c>
       <c r="F24">
-        <v>20.61094644675369</v>
+        <v>31.43784702203675</v>
       </c>
       <c r="G24">
-        <v>2.047668845227796</v>
+        <v>3.63775832727395</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.06534494545684</v>
+        <v>25.27789218818605</v>
       </c>
       <c r="J24">
-        <v>10.32818927104482</v>
+        <v>11.61641187898128</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.56740117280148</v>
+        <v>12.51726345859811</v>
       </c>
       <c r="M24">
-        <v>19.29634971955515</v>
+        <v>17.95552546258332</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.18226001792002</v>
+        <v>23.9388064029071</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.84042167198083</v>
+        <v>17.83047176041756</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.994930457085359</v>
+        <v>9.848184120584911</v>
       </c>
       <c r="E25">
-        <v>14.9678102866153</v>
+        <v>16.17743204357376</v>
       </c>
       <c r="F25">
-        <v>20.07677572684358</v>
+        <v>31.66095068658954</v>
       </c>
       <c r="G25">
-        <v>2.059571446517429</v>
+        <v>3.642011913955803</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.81323651235507</v>
+        <v>25.58532339007886</v>
       </c>
       <c r="J25">
-        <v>9.90731398376175</v>
+        <v>11.51385077970331</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.22971977336039</v>
+        <v>12.08742289714456</v>
       </c>
       <c r="M25">
-        <v>17.67088963408131</v>
+        <v>17.4471428055633</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.45412110965323</v>
+        <v>24.02572315897426</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.17899368645011</v>
+        <v>20.09563806600463</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.84383232753013</v>
+        <v>6.906869614451069</v>
       </c>
       <c r="E2">
-        <v>16.03202598371829</v>
+        <v>14.40645758991688</v>
       </c>
       <c r="F2">
-        <v>31.85767197334945</v>
+        <v>19.79489928812241</v>
       </c>
       <c r="G2">
-        <v>3.645402074045877</v>
+        <v>2.068667694191034</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.83248016663205</v>
+        <v>15.41668389218397</v>
       </c>
       <c r="J2">
-        <v>11.43983118652399</v>
+        <v>9.590384193862933</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.76141974793471</v>
+        <v>12.22570654109467</v>
       </c>
       <c r="M2">
-        <v>17.06442421385967</v>
+        <v>16.38915243971719</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.11367487535943</v>
+        <v>15.98192623693588</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.72307153153398</v>
+        <v>18.82586809537754</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.842262796629237</v>
+        <v>6.849120497348014</v>
       </c>
       <c r="E3">
-        <v>15.93477218845757</v>
+        <v>14.0171545721957</v>
       </c>
       <c r="F3">
-        <v>32.01102044269985</v>
+        <v>19.66835612951831</v>
       </c>
       <c r="G3">
-        <v>3.647862164162222</v>
+        <v>2.075060194021697</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.01299057684312</v>
+        <v>15.85509783687201</v>
       </c>
       <c r="J3">
-        <v>11.39073110077423</v>
+        <v>9.372158660767621</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.53563854483479</v>
+        <v>11.49799382405443</v>
       </c>
       <c r="M3">
-        <v>16.8009781060472</v>
+        <v>15.46387021932258</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.18808299262954</v>
+        <v>15.70097477524518</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.43691650426402</v>
+        <v>18.00330619003972</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.84198624809228</v>
+        <v>6.814652289031107</v>
       </c>
       <c r="E4">
-        <v>15.87579671440022</v>
+        <v>13.77445692405385</v>
       </c>
       <c r="F4">
-        <v>32.11498289667441</v>
+        <v>19.62054201837878</v>
       </c>
       <c r="G4">
-        <v>3.649453320375299</v>
+        <v>2.079103868861689</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>26.13025478076035</v>
+        <v>16.13791157334282</v>
       </c>
       <c r="J4">
-        <v>11.36115144133652</v>
+        <v>9.236828337576796</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.39501014264128</v>
+        <v>11.02821168058753</v>
       </c>
       <c r="M4">
-        <v>16.63762204534032</v>
+        <v>14.86852428136074</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.2410198246343</v>
+        <v>15.54731097011189</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.31888802499297</v>
+        <v>17.65736394229858</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.842047369690899</v>
+        <v>6.800861235135589</v>
       </c>
       <c r="E5">
-        <v>15.85196515354093</v>
+        <v>13.67475142952927</v>
       </c>
       <c r="F5">
-        <v>32.15980309975418</v>
+        <v>19.60826221391817</v>
       </c>
       <c r="G5">
-        <v>3.650122076119619</v>
+        <v>2.080782399054694</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.1796595167226</v>
+        <v>16.25647323581423</v>
       </c>
       <c r="J5">
-        <v>11.34924693629256</v>
+        <v>9.181401436904725</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.33726274248237</v>
+        <v>10.83107534229164</v>
       </c>
       <c r="M5">
-        <v>16.57071519141923</v>
+        <v>14.61921617882071</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.26440709029335</v>
+        <v>15.48934843619645</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.29920827365999</v>
+        <v>17.5992737529989</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.842068046641817</v>
+        <v>6.798586821016523</v>
       </c>
       <c r="E6">
-        <v>15.84802055864174</v>
+        <v>13.65815041528801</v>
       </c>
       <c r="F6">
-        <v>32.16739338745937</v>
+        <v>19.60664886555278</v>
       </c>
       <c r="G6">
-        <v>3.650234353342264</v>
+        <v>2.081062996340791</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.18796094904112</v>
+        <v>16.27635741620701</v>
       </c>
       <c r="J6">
-        <v>11.34727941903941</v>
+        <v>9.172182763112115</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.32764910345379</v>
+        <v>10.79799972358789</v>
       </c>
       <c r="M6">
-        <v>16.55958684822972</v>
+        <v>14.57741906406281</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.26839991156567</v>
+        <v>15.48000228762171</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.43533027340115</v>
+        <v>17.99868409756152</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.841986367269918</v>
+        <v>6.81446525745918</v>
       </c>
       <c r="E7">
-        <v>15.87547447759882</v>
+        <v>13.77311535648469</v>
       </c>
       <c r="F7">
-        <v>32.11557743364936</v>
+        <v>19.62034766084789</v>
       </c>
       <c r="G7">
-        <v>3.64946225697829</v>
+        <v>2.079126380693115</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>26.13091451422757</v>
+        <v>16.13949726086608</v>
       </c>
       <c r="J7">
-        <v>11.36099027928283</v>
+        <v>9.236081880597585</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.39423303958532</v>
+        <v>11.02557597425442</v>
       </c>
       <c r="M7">
-        <v>16.63672099872906</v>
+        <v>14.86518893427647</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.24132789524183</v>
+        <v>15.5465105342844</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.02316631854674</v>
+        <v>19.66675107833732</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.843149156971217</v>
+        <v>6.886755878399951</v>
       </c>
       <c r="E8">
-        <v>15.99834901600979</v>
+        <v>14.27305405818187</v>
       </c>
       <c r="F8">
-        <v>31.90850469538621</v>
+        <v>19.74488533963807</v>
       </c>
       <c r="G8">
-        <v>3.646233614011429</v>
+        <v>2.070847735617597</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.89338660892408</v>
+        <v>15.5649467453005</v>
       </c>
       <c r="J8">
-        <v>11.42278760040132</v>
+        <v>9.515451748844606</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.68402166269689</v>
+        <v>11.97959693360885</v>
       </c>
       <c r="M8">
-        <v>16.97395797286022</v>
+        <v>16.0758401908114</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.13782141011171</v>
+        <v>15.88110094922545</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.12068573458077</v>
+        <v>22.59636317714013</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.850836425281736</v>
+        <v>7.036115770057619</v>
       </c>
       <c r="E9">
-        <v>16.24447085262033</v>
+        <v>15.21965786521646</v>
       </c>
       <c r="F9">
-        <v>31.58072899571033</v>
+        <v>20.23880020939481</v>
       </c>
       <c r="G9">
-        <v>3.640539158761563</v>
+        <v>2.055513276839934</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.47853879469604</v>
+        <v>14.55257488904717</v>
       </c>
       <c r="J9">
-        <v>11.54818384441733</v>
+        <v>10.05029725803991</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.23383082159377</v>
+        <v>13.69333454960673</v>
       </c>
       <c r="M9">
-        <v>17.61984647648524</v>
+        <v>18.22931553199404</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.99270645041128</v>
+        <v>16.68938770360568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.88616893633917</v>
+        <v>24.54082576594046</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.859719817664248</v>
+        <v>7.150165828168374</v>
       </c>
       <c r="E10">
-        <v>16.42750297231205</v>
+        <v>15.88890246375417</v>
       </c>
       <c r="F10">
-        <v>31.38829606131432</v>
+        <v>20.76907800179155</v>
       </c>
       <c r="G10">
-        <v>3.636739483884431</v>
+        <v>2.044733791761964</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.20470427896006</v>
+        <v>13.88909703261822</v>
       </c>
       <c r="J10">
-        <v>11.6424798318651</v>
+        <v>10.43242158034484</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.62320390273853</v>
+        <v>14.88658392578545</v>
       </c>
       <c r="M10">
-        <v>18.08142469076117</v>
+        <v>19.71788085860464</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.92179111457305</v>
+        <v>17.37849075994068</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.22421009539929</v>
+        <v>25.38064397926175</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.864450304936403</v>
+        <v>7.20292943436519</v>
       </c>
       <c r="E11">
-        <v>16.51104488539823</v>
+        <v>16.18666471412702</v>
       </c>
       <c r="F11">
-        <v>31.31139464312317</v>
+        <v>21.04931137847422</v>
       </c>
       <c r="G11">
-        <v>3.635093403462218</v>
+        <v>2.039920786765635</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.08683218033361</v>
+        <v>13.60775291385418</v>
       </c>
       <c r="J11">
-        <v>11.68576080127717</v>
+        <v>10.60337840770322</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.79653128469236</v>
+        <v>15.40115047550939</v>
       </c>
       <c r="M11">
-        <v>18.2878852587092</v>
+        <v>20.39747162038789</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.89736157066051</v>
+        <v>17.71294574639179</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.35065605495111</v>
+        <v>25.69227500554219</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.866339558322897</v>
+        <v>7.223032280247686</v>
       </c>
       <c r="E12">
-        <v>16.54270295329761</v>
+        <v>16.29838817364483</v>
       </c>
       <c r="F12">
-        <v>31.28381444455076</v>
+        <v>21.16121500715316</v>
       </c>
       <c r="G12">
-        <v>3.634481857674093</v>
+        <v>2.038109933502315</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.04315902862781</v>
+        <v>13.50447751934846</v>
       </c>
       <c r="J12">
-        <v>11.70219800905394</v>
+        <v>10.66766361037814</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.86156967558975</v>
+        <v>15.59198573631653</v>
       </c>
       <c r="M12">
-        <v>18.36550507791934</v>
+        <v>20.64951519612678</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.88924222684423</v>
+        <v>17.84262367113999</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.32349464051223</v>
+        <v>25.62544310252705</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.865928338350363</v>
+        <v>7.218697388245763</v>
       </c>
       <c r="E13">
-        <v>16.53588409965122</v>
+        <v>16.27437349947008</v>
       </c>
       <c r="F13">
-        <v>31.28968563805839</v>
+        <v>21.13685472183878</v>
       </c>
       <c r="G13">
-        <v>3.634613041649743</v>
+        <v>2.038499433496228</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.0525220242377</v>
+        <v>13.52656888194936</v>
       </c>
       <c r="J13">
-        <v>11.69865596739865</v>
+        <v>10.65383933987668</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.84758981185894</v>
+        <v>15.55106401965564</v>
       </c>
       <c r="M13">
-        <v>18.34881415023344</v>
+        <v>20.5954680322676</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.89094046254147</v>
+        <v>17.81456042816548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.23464473646822</v>
+        <v>25.40640983732172</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.864603779514189</v>
+        <v>7.20458087607963</v>
       </c>
       <c r="E14">
-        <v>16.51364906268819</v>
+        <v>16.19587734450199</v>
       </c>
       <c r="F14">
-        <v>31.3090946634584</v>
+        <v>21.05840089321581</v>
       </c>
       <c r="G14">
-        <v>3.635042855300509</v>
+        <v>2.039771579598914</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.08321987718854</v>
+        <v>13.59918894750986</v>
       </c>
       <c r="J14">
-        <v>11.68711219003173</v>
+        <v>10.60867646595105</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.80189427305029</v>
+        <v>15.41693091615699</v>
       </c>
       <c r="M14">
-        <v>18.29428267492245</v>
+        <v>20.41831334549887</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.8966708787314</v>
+        <v>17.72355370594204</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.18001529511059</v>
+        <v>25.27141490664461</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.863805164691053</v>
+        <v>7.195949932070746</v>
       </c>
       <c r="E15">
-        <v>16.50003187442011</v>
+        <v>16.14765972881097</v>
       </c>
       <c r="F15">
-        <v>31.3211842193459</v>
+        <v>21.01110386494922</v>
       </c>
       <c r="G15">
-        <v>3.635307662051316</v>
+        <v>2.04055229252129</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.10214852606877</v>
+        <v>13.64410628399749</v>
       </c>
       <c r="J15">
-        <v>11.68004726652446</v>
+        <v>10.58095289469459</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.77382525644138</v>
+        <v>15.33424832724339</v>
       </c>
       <c r="M15">
-        <v>18.26080569368538</v>
+        <v>20.30911209627944</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.90032844639159</v>
+        <v>17.6682039553784</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.86386361739981</v>
+        <v>24.48504497148602</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.859424438383224</v>
+        <v>7.146734950615542</v>
       </c>
       <c r="E16">
-        <v>16.42204743005279</v>
+        <v>15.86930219909032</v>
       </c>
       <c r="F16">
-        <v>31.39353675314172</v>
+        <v>20.7515646738304</v>
       </c>
       <c r="G16">
-        <v>3.636848712165926</v>
+        <v>2.045050047471411</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.21254220331412</v>
+        <v>13.90792156459594</v>
       </c>
       <c r="J16">
-        <v>11.63965840955179</v>
+        <v>10.42118786970203</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.61179569272587</v>
+        <v>14.85239086920103</v>
       </c>
       <c r="M16">
-        <v>18.06785636523744</v>
+        <v>19.67272293218236</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.92354570217967</v>
+        <v>17.35705642308173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.66723386307352</v>
+        <v>23.99120302600193</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.856912718974577</v>
+        <v>7.11676559427877</v>
       </c>
       <c r="E17">
-        <v>16.37426556850805</v>
+        <v>15.69677357390543</v>
       </c>
       <c r="F17">
-        <v>31.44065513420163</v>
+        <v>20.60247025102754</v>
       </c>
       <c r="G17">
-        <v>3.637815160023186</v>
+        <v>2.047831591168987</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.28197989504544</v>
+        <v>14.07521771273883</v>
       </c>
       <c r="J17">
-        <v>11.61497432987946</v>
+        <v>10.32241187536161</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.5113855338236</v>
+        <v>14.54958047886911</v>
       </c>
       <c r="M17">
-        <v>17.94854683420857</v>
+        <v>19.27281507343275</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.93979844995181</v>
+        <v>17.17155889221922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.55318464750045</v>
+        <v>23.70294499652135</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.85553300704429</v>
+        <v>7.099611213936369</v>
       </c>
       <c r="E18">
-        <v>16.34681008859752</v>
+        <v>15.59691456829789</v>
       </c>
       <c r="F18">
-        <v>31.46875697039628</v>
+        <v>20.5203778836446</v>
       </c>
       <c r="G18">
-        <v>3.638378795799737</v>
+        <v>2.049440076728194</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.32254895440751</v>
+        <v>14.17334700423469</v>
       </c>
       <c r="J18">
-        <v>11.60081343044169</v>
+        <v>10.26533013397639</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.45327737016322</v>
+        <v>14.37275026859762</v>
       </c>
       <c r="M18">
-        <v>17.87959567234967</v>
+        <v>19.04963397045869</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.94988332122891</v>
+        <v>17.06683992443941</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.51440903423517</v>
+        <v>23.60462105984069</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.855077054195524</v>
+        <v>7.093817472282248</v>
       </c>
       <c r="E19">
-        <v>16.3375193760305</v>
+        <v>15.56299901324897</v>
       </c>
       <c r="F19">
-        <v>31.47844327890351</v>
+        <v>20.49320610773969</v>
       </c>
       <c r="G19">
-        <v>3.63857096794773</v>
+        <v>2.049986200117243</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.33639321974636</v>
+        <v>14.20689025050295</v>
       </c>
       <c r="J19">
-        <v>11.59602533688631</v>
+        <v>10.24595840936396</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.43354357984391</v>
+        <v>14.31242023406459</v>
       </c>
       <c r="M19">
-        <v>17.85619553125511</v>
+        <v>18.9766180947541</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.95342423564516</v>
+        <v>17.0317226107113</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.68826481204642</v>
+        <v>24.04420912519722</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.857173381111473</v>
+        <v>7.119947306865507</v>
       </c>
       <c r="E20">
-        <v>16.37934932314419</v>
+        <v>15.71520478834582</v>
       </c>
       <c r="F20">
-        <v>31.43553566354026</v>
+        <v>20.61796116187827</v>
       </c>
       <c r="G20">
-        <v>3.637711477258581</v>
+        <v>2.047534608590415</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.27452290101123</v>
+        <v>14.0572094603036</v>
       </c>
       <c r="J20">
-        <v>11.61759824682025</v>
+        <v>10.33295482596962</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.52211147255305</v>
+        <v>14.58209034343287</v>
       </c>
       <c r="M20">
-        <v>17.96128185161433</v>
+        <v>19.31574879620763</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.93799202649246</v>
+        <v>17.19110100593359</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.26078526521742</v>
+        <v>25.47091825102815</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.864990186811387</v>
+        <v>7.208723945994541</v>
       </c>
       <c r="E21">
-        <v>16.52017956045982</v>
+        <v>16.21896212001926</v>
       </c>
       <c r="F21">
-        <v>31.30335186150879</v>
+        <v>21.08128639599774</v>
       </c>
       <c r="G21">
-        <v>3.634916289146327</v>
+        <v>2.039397612103921</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.07417705617809</v>
+        <v>13.57776727549102</v>
       </c>
       <c r="J21">
-        <v>11.69050164632867</v>
+        <v>10.62195446573028</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.81533274694627</v>
+        <v>15.45643780287818</v>
       </c>
       <c r="M21">
-        <v>18.31031559364713</v>
+        <v>20.47049143197225</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.89495696399788</v>
+        <v>17.75020235687791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.62581137918558</v>
+        <v>26.37083356964969</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.870669095988735</v>
+        <v>7.26745678446995</v>
       </c>
       <c r="E22">
-        <v>16.61234357976426</v>
+        <v>16.54215095360464</v>
       </c>
       <c r="F22">
-        <v>31.22594737455116</v>
+        <v>21.41788188216352</v>
       </c>
       <c r="G22">
-        <v>3.633158160085003</v>
+        <v>2.034147286913423</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.94884926226847</v>
+        <v>13.28363697015676</v>
       </c>
       <c r="J22">
-        <v>11.73842230145364</v>
+        <v>10.80818035082399</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.00346932439382</v>
+        <v>16.00446571102332</v>
       </c>
       <c r="M22">
-        <v>18.53512715028513</v>
+        <v>21.19430291059604</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.87342898495979</v>
+        <v>18.13325631671638</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.43185749138867</v>
+        <v>25.89173068398752</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.867586391592823</v>
+        <v>7.23604600007078</v>
       </c>
       <c r="E23">
-        <v>16.56314845226962</v>
+        <v>16.37023349395936</v>
       </c>
       <c r="F23">
-        <v>31.26643388395128</v>
+        <v>21.23509142347274</v>
       </c>
       <c r="G23">
-        <v>3.63409024188205</v>
+        <v>2.036943751543034</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.01522589370262</v>
+        <v>13.4387411537462</v>
       </c>
       <c r="J23">
-        <v>11.71282364539021</v>
+        <v>10.70904252731262</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.90339341903083</v>
+        <v>15.71409979157541</v>
       </c>
       <c r="M23">
-        <v>18.41546129361615</v>
+        <v>20.81079752937429</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.88431348117657</v>
+        <v>17.92719506608898</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.67875984009478</v>
+        <v>24.0202585942805</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.857055335365597</v>
+        <v>7.118508619400655</v>
       </c>
       <c r="E24">
-        <v>16.37705090977556</v>
+        <v>15.70687411762799</v>
       </c>
       <c r="F24">
-        <v>31.43784702203675</v>
+        <v>20.61094644675383</v>
       </c>
       <c r="G24">
-        <v>3.63775832727395</v>
+        <v>2.047668845227661</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.27789218818605</v>
+        <v>14.06534494545701</v>
       </c>
       <c r="J24">
-        <v>11.61641187898128</v>
+        <v>10.32818927104479</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.51726345859811</v>
+        <v>14.56740117280146</v>
       </c>
       <c r="M24">
-        <v>17.95552546258332</v>
+        <v>19.29634971955511</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.9388064029071</v>
+        <v>17.1822600179201</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.83047176041756</v>
+        <v>21.84042167198083</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.848184120584911</v>
+        <v>6.994930457085359</v>
       </c>
       <c r="E25">
-        <v>16.17743204357376</v>
+        <v>14.96781028661535</v>
       </c>
       <c r="F25">
-        <v>31.66095068658954</v>
+        <v>20.07677572684364</v>
       </c>
       <c r="G25">
-        <v>3.642011913955803</v>
+        <v>2.059571446517428</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.58532339007886</v>
+        <v>14.81323651235517</v>
       </c>
       <c r="J25">
-        <v>11.51385077970331</v>
+        <v>9.907313983761792</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.08742289714456</v>
+        <v>13.2297197733604</v>
       </c>
       <c r="M25">
-        <v>17.4471428055633</v>
+        <v>17.67088963408132</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.02572315897426</v>
+        <v>16.45412110965328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.09563806600463</v>
+        <v>7.232780614929109</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.906869614451069</v>
+        <v>7.50163122165165</v>
       </c>
       <c r="E2">
-        <v>14.40645758991688</v>
+        <v>10.30548800628368</v>
       </c>
       <c r="F2">
-        <v>19.79489928812241</v>
+        <v>20.25607743810635</v>
       </c>
       <c r="G2">
-        <v>2.068667694191034</v>
+        <v>20.85586658780836</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.857101586498304</v>
       </c>
       <c r="I2">
-        <v>15.41668389218397</v>
+        <v>3.742409288954953</v>
       </c>
       <c r="J2">
-        <v>9.590384193862933</v>
+        <v>8.67260645438218</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.45181678036081</v>
       </c>
       <c r="L2">
-        <v>12.22570654109467</v>
+        <v>6.617083562761669</v>
       </c>
       <c r="M2">
-        <v>16.38915243971719</v>
+        <v>15.82434242729892</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.98192623693588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.21197689493578</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.9281292890994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.82586809537754</v>
+        <v>6.806290361757056</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.849120497348014</v>
+        <v>7.230458757556389</v>
       </c>
       <c r="E3">
-        <v>14.0171545721957</v>
+        <v>10.03333122712535</v>
       </c>
       <c r="F3">
-        <v>19.66835612951831</v>
+        <v>20.0040224851626</v>
       </c>
       <c r="G3">
-        <v>2.075060194021697</v>
+        <v>20.58010835413573</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.057219549817852</v>
       </c>
       <c r="I3">
-        <v>15.85509783687201</v>
+        <v>3.835131180854134</v>
       </c>
       <c r="J3">
-        <v>9.372158660767621</v>
+        <v>8.715779650926269</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.67045211305078</v>
       </c>
       <c r="L3">
-        <v>11.49799382405443</v>
+        <v>6.544755184551128</v>
       </c>
       <c r="M3">
-        <v>15.46387021932258</v>
+        <v>14.96973384280385</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.70097477524518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.48838863523896</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.92681763878664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.00330619003972</v>
+        <v>6.525193727249381</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.814652289031107</v>
+        <v>7.059633217713072</v>
       </c>
       <c r="E4">
-        <v>13.77445692405385</v>
+        <v>9.861861338952551</v>
       </c>
       <c r="F4">
-        <v>19.62054201837878</v>
+        <v>19.85629651519494</v>
       </c>
       <c r="G4">
-        <v>2.079103868861689</v>
+        <v>20.42292323925455</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.184619266699599</v>
       </c>
       <c r="I4">
-        <v>16.13791157334282</v>
+        <v>3.894809876078027</v>
       </c>
       <c r="J4">
-        <v>9.236828337576796</v>
+        <v>8.745513199835276</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.80886607347653</v>
       </c>
       <c r="L4">
-        <v>11.02821168058753</v>
+        <v>6.499085370688014</v>
       </c>
       <c r="M4">
-        <v>14.86852428136074</v>
+        <v>14.42184107408369</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.54731097011189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.0247107268437</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.93301896062144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.65736394229858</v>
+        <v>6.394743824575959</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.800861235135589</v>
+        <v>6.989680641947206</v>
       </c>
       <c r="E5">
-        <v>13.67475142952927</v>
+        <v>9.790099328302341</v>
       </c>
       <c r="F5">
-        <v>19.60826221391817</v>
+        <v>19.79179383808807</v>
       </c>
       <c r="G5">
-        <v>2.080782399054694</v>
+        <v>20.3514454253957</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.237720134388199</v>
       </c>
       <c r="I5">
-        <v>16.25647323581423</v>
+        <v>3.922469049028832</v>
       </c>
       <c r="J5">
-        <v>9.181401436904725</v>
+        <v>8.7566979517046</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.86583923805029</v>
       </c>
       <c r="L5">
-        <v>10.83107534229164</v>
+        <v>6.479554247762607</v>
       </c>
       <c r="M5">
-        <v>14.61921617882071</v>
+        <v>14.201396994146</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.48934843619645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.83701170779684</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.9329659191606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.5992737529989</v>
+        <v>6.359235205498005</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.798586821016523</v>
+        <v>6.978820784559934</v>
       </c>
       <c r="E6">
-        <v>13.65815041528801</v>
+        <v>9.77708705755246</v>
       </c>
       <c r="F6">
-        <v>19.60664886555278</v>
+        <v>19.77374423630499</v>
       </c>
       <c r="G6">
-        <v>2.081062996340791</v>
+        <v>20.32698092257764</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.246645329450276</v>
       </c>
       <c r="I6">
-        <v>16.27635741620701</v>
+        <v>3.930475041315831</v>
       </c>
       <c r="J6">
-        <v>9.172182763112115</v>
+        <v>8.756497990658641</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.87484005017672</v>
       </c>
       <c r="L6">
-        <v>10.79799972358789</v>
+        <v>6.47555118600419</v>
       </c>
       <c r="M6">
-        <v>14.57741906406281</v>
+        <v>14.17488441223622</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.48000228762171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.81290002703668</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.92781841791229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.99868409756152</v>
+        <v>6.487162546505925</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.81446525745918</v>
+        <v>7.060886778626323</v>
       </c>
       <c r="E7">
-        <v>13.77311535648469</v>
+        <v>9.858106258344087</v>
       </c>
       <c r="F7">
-        <v>19.62034766084789</v>
+        <v>19.8352161854295</v>
       </c>
       <c r="G7">
-        <v>2.079126380693115</v>
+        <v>20.3872779088415</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.185426186891203</v>
       </c>
       <c r="I7">
-        <v>16.13949726086608</v>
+        <v>3.904068582612324</v>
       </c>
       <c r="J7">
-        <v>9.236081880597585</v>
+        <v>8.739933001224596</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.80836286379784</v>
       </c>
       <c r="L7">
-        <v>11.02557597425442</v>
+        <v>6.496818512670774</v>
       </c>
       <c r="M7">
-        <v>14.86518893427647</v>
+        <v>14.44687848818642</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.5465105342844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.04181300270864</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.91875156173439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.66675107833732</v>
+        <v>7.044912658734911</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.886755878399951</v>
+        <v>7.411845030940801</v>
       </c>
       <c r="E8">
-        <v>14.27305405818187</v>
+        <v>10.20905425769813</v>
       </c>
       <c r="F8">
-        <v>19.74488533963807</v>
+        <v>20.14163989068683</v>
       </c>
       <c r="G8">
-        <v>2.070847735617597</v>
+        <v>20.71351923806543</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.925263472717495</v>
       </c>
       <c r="I8">
-        <v>15.5649467453005</v>
+        <v>3.784919795773933</v>
       </c>
       <c r="J8">
-        <v>9.515451748844606</v>
+        <v>8.679313101199321</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.52561040745546</v>
       </c>
       <c r="L8">
-        <v>11.97959693360885</v>
+        <v>6.58983918630066</v>
       </c>
       <c r="M8">
-        <v>16.0758401908114</v>
+        <v>15.5694028781256</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.88110094922545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.99072024715358</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.90756654459289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.59636317714013</v>
+        <v>8.044158365817648</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.036115770057619</v>
+        <v>8.058887914092262</v>
       </c>
       <c r="E9">
-        <v>15.21965786521646</v>
+        <v>10.86503844321829</v>
       </c>
       <c r="F9">
-        <v>20.23880020939481</v>
+        <v>20.83249298123847</v>
       </c>
       <c r="G9">
-        <v>2.055513276839934</v>
+        <v>21.51033786588858</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.668261512484319</v>
       </c>
       <c r="I9">
-        <v>14.55257488904717</v>
+        <v>3.55848230202246</v>
       </c>
       <c r="J9">
-        <v>10.05029725803991</v>
+        <v>8.597176647112011</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.00493743177777</v>
       </c>
       <c r="L9">
-        <v>13.69333454960673</v>
+        <v>6.765587996016001</v>
       </c>
       <c r="M9">
-        <v>18.22931553199404</v>
+        <v>17.53672472095372</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.68938770360568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.66158731748</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.96888502972127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.54082576594046</v>
+        <v>8.689943078146438</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.150165828168374</v>
+        <v>8.434550076416478</v>
       </c>
       <c r="E10">
-        <v>15.88890246375417</v>
+        <v>11.15960456200238</v>
       </c>
       <c r="F10">
-        <v>20.76907800179155</v>
+        <v>21.2150531895494</v>
       </c>
       <c r="G10">
-        <v>2.044733791761964</v>
+        <v>21.96588963691157</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.979968062774</v>
       </c>
       <c r="I10">
-        <v>13.88909703261822</v>
+        <v>3.411407172276018</v>
       </c>
       <c r="J10">
-        <v>10.43242158034484</v>
+        <v>8.523821007387546</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.64570799048176</v>
       </c>
       <c r="L10">
-        <v>14.88658392578545</v>
+        <v>6.829270535388174</v>
       </c>
       <c r="M10">
-        <v>19.71788085860464</v>
+        <v>18.87672090571337</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.37849075994068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.69272442145314</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.9740726305284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.38064397926175</v>
+        <v>9.092816570842555</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.20292943436519</v>
+        <v>7.968403966603156</v>
       </c>
       <c r="E11">
-        <v>16.18666471412702</v>
+        <v>9.978325450055856</v>
       </c>
       <c r="F11">
-        <v>21.04931137847422</v>
+        <v>20.08971957322235</v>
       </c>
       <c r="G11">
-        <v>2.039920786765635</v>
+        <v>20.63406017082697</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.866146709058065</v>
       </c>
       <c r="I11">
-        <v>13.60775291385418</v>
+        <v>3.375617769551838</v>
       </c>
       <c r="J11">
-        <v>10.60337840770322</v>
+        <v>8.243249428397469</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.54369935056884</v>
       </c>
       <c r="L11">
-        <v>15.40115047550939</v>
+        <v>6.432890148878233</v>
       </c>
       <c r="M11">
-        <v>20.39747162038789</v>
+        <v>19.51296850396907</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.71294574639179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.27571741250386</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.34001952447575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.69227500554219</v>
+        <v>9.349701212404796</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.223032280247686</v>
+        <v>7.493818145772371</v>
       </c>
       <c r="E12">
-        <v>16.29838817364483</v>
+        <v>9.052890258404691</v>
       </c>
       <c r="F12">
-        <v>21.16121500715316</v>
+        <v>19.07702148453737</v>
       </c>
       <c r="G12">
-        <v>2.038109933502315</v>
+        <v>19.4399231061703</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.136803914595503</v>
       </c>
       <c r="I12">
-        <v>13.50447751934846</v>
+        <v>3.359718652633992</v>
       </c>
       <c r="J12">
-        <v>10.66766361037814</v>
+        <v>8.028929988262428</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.56119440081048</v>
       </c>
       <c r="L12">
-        <v>15.59198573631653</v>
+        <v>6.210259276987354</v>
       </c>
       <c r="M12">
-        <v>20.64951519612678</v>
+        <v>19.74265286897079</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.84262367113999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.67585047574673</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.81893424555614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.62544310252705</v>
+        <v>9.474228263448953</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.218697388245763</v>
+        <v>6.979178686816136</v>
       </c>
       <c r="E13">
-        <v>16.27437349947008</v>
+        <v>8.299673231604924</v>
       </c>
       <c r="F13">
-        <v>21.13685472183878</v>
+        <v>18.054676338305</v>
       </c>
       <c r="G13">
-        <v>2.038499433496228</v>
+        <v>18.21613561300256</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.468574971426941</v>
       </c>
       <c r="I13">
-        <v>13.52656888194936</v>
+        <v>3.371637050494543</v>
       </c>
       <c r="J13">
-        <v>10.65383933987668</v>
+        <v>7.844787264695807</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.66615827689406</v>
       </c>
       <c r="L13">
-        <v>15.55106401965564</v>
+        <v>6.114325718615259</v>
       </c>
       <c r="M13">
-        <v>20.5954680322676</v>
+        <v>19.71430704595454</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.81456042816548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.90470749856074</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.33216129370588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.40640983732172</v>
+        <v>9.494888031514643</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.20458087607963</v>
+        <v>6.600039330582858</v>
       </c>
       <c r="E14">
-        <v>16.19587734450199</v>
+        <v>7.90274310808831</v>
       </c>
       <c r="F14">
-        <v>21.05840089321581</v>
+        <v>17.33328786230012</v>
       </c>
       <c r="G14">
-        <v>2.039771579598914</v>
+        <v>17.33798101209556</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.454423622827631</v>
       </c>
       <c r="I14">
-        <v>13.59918894750986</v>
+        <v>3.395236503665291</v>
       </c>
       <c r="J14">
-        <v>10.60867646595105</v>
+        <v>7.729857334593318</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.78308788519349</v>
       </c>
       <c r="L14">
-        <v>15.41693091615699</v>
+        <v>6.124591620171508</v>
       </c>
       <c r="M14">
-        <v>20.41831334549887</v>
+        <v>19.58421651130543</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.72355370594204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.28105966645369</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.00719891597284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.27141490664461</v>
+        <v>9.459891148482118</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.195949932070746</v>
+        <v>6.499345604494938</v>
       </c>
       <c r="E15">
-        <v>16.14765972881097</v>
+        <v>7.825503245051591</v>
       </c>
       <c r="F15">
-        <v>21.01110386494922</v>
+        <v>17.15156420967508</v>
       </c>
       <c r="G15">
-        <v>2.04055229252129</v>
+        <v>17.1100580601041</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.69300877272843</v>
       </c>
       <c r="I15">
-        <v>13.64410628399749</v>
+        <v>3.41106402714437</v>
       </c>
       <c r="J15">
-        <v>10.58095289469459</v>
+        <v>7.707013231651525</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.83028285569423</v>
       </c>
       <c r="L15">
-        <v>15.33424832724339</v>
+        <v>6.13623490952016</v>
       </c>
       <c r="M15">
-        <v>20.30911209627944</v>
+        <v>19.50576777692774</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.6682039553784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.09752974897343</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.93238493493734</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.48504497148602</v>
+        <v>9.163130006869988</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.146734950615542</v>
+        <v>6.424640507143851</v>
       </c>
       <c r="E16">
-        <v>15.86930219909032</v>
+        <v>7.831791822294157</v>
       </c>
       <c r="F16">
-        <v>20.7515646738304</v>
+        <v>17.16956712190798</v>
       </c>
       <c r="G16">
-        <v>2.045050047471411</v>
+        <v>17.11232525741173</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.480280526637706</v>
       </c>
       <c r="I16">
-        <v>13.90792156459594</v>
+        <v>3.476599617628616</v>
       </c>
       <c r="J16">
-        <v>10.42118786970203</v>
+        <v>7.773830833632292</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.94558523037178</v>
       </c>
       <c r="L16">
-        <v>14.85239086920103</v>
+        <v>6.121280803322233</v>
       </c>
       <c r="M16">
-        <v>19.67272293218236</v>
+        <v>18.97507483780452</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.35705642308173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.78227457701395</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.02066721507339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.99120302600193</v>
+        <v>8.916885219034834</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.11676559427877</v>
+        <v>6.572807958800954</v>
       </c>
       <c r="E17">
-        <v>15.69677357390543</v>
+        <v>8.02296465432665</v>
       </c>
       <c r="F17">
-        <v>20.60247025102754</v>
+        <v>17.5676183610055</v>
       </c>
       <c r="G17">
-        <v>2.047831591168987</v>
+        <v>17.58615413696531</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.735011850991524</v>
       </c>
       <c r="I17">
-        <v>14.07521771273883</v>
+        <v>3.515054620143998</v>
       </c>
       <c r="J17">
-        <v>10.32241187536161</v>
+        <v>7.885303169962662</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.97381043103682</v>
       </c>
       <c r="L17">
-        <v>14.54958047886911</v>
+        <v>6.092514795631417</v>
       </c>
       <c r="M17">
-        <v>19.27281507343275</v>
+        <v>18.6330932287106</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.17155889221922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.88552661918671</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.25951523335822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.70294499652135</v>
+        <v>8.717010101780104</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.099611213936369</v>
+        <v>6.93404839937801</v>
       </c>
       <c r="E18">
-        <v>15.59691456829789</v>
+        <v>8.523598260986558</v>
       </c>
       <c r="F18">
-        <v>20.5203778836446</v>
+        <v>18.3549793184135</v>
       </c>
       <c r="G18">
-        <v>2.049440076728194</v>
+        <v>18.53987063356774</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.463710945975663</v>
       </c>
       <c r="I18">
-        <v>14.17334700423469</v>
+        <v>3.524568844444044</v>
       </c>
       <c r="J18">
-        <v>10.26533013397639</v>
+        <v>8.052532205179839</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.93520979770281</v>
       </c>
       <c r="L18">
-        <v>14.37275026859762</v>
+        <v>6.119315537118404</v>
       </c>
       <c r="M18">
-        <v>19.04963397045869</v>
+        <v>18.40170850625281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.06683992443941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.34882144934893</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.66603123782842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.60462105984069</v>
+        <v>8.517872315236767</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.093817472282248</v>
+        <v>7.447602079320642</v>
       </c>
       <c r="E19">
-        <v>15.56299901324897</v>
+        <v>9.384980355354456</v>
       </c>
       <c r="F19">
-        <v>20.49320610773969</v>
+        <v>19.37420876520499</v>
       </c>
       <c r="G19">
-        <v>2.049986200117243</v>
+        <v>19.75415751315794</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.967075592569972</v>
       </c>
       <c r="I19">
-        <v>14.20689025050295</v>
+        <v>3.527026558321099</v>
       </c>
       <c r="J19">
-        <v>10.24595840936396</v>
+        <v>8.245943612270494</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.88249531094954</v>
       </c>
       <c r="L19">
-        <v>14.31242023406459</v>
+        <v>6.28891067052596</v>
       </c>
       <c r="M19">
-        <v>18.9766180947541</v>
+        <v>18.32462574711095</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.0317226107113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.08583384027721</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.16038785877696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.04420912519722</v>
+        <v>8.437983936135822</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.119947306865507</v>
+        <v>8.339880942412337</v>
       </c>
       <c r="E20">
-        <v>15.71520478834582</v>
+        <v>11.0687465141375</v>
       </c>
       <c r="F20">
-        <v>20.61796116187827</v>
+        <v>21.04859046351648</v>
       </c>
       <c r="G20">
-        <v>2.047534608590415</v>
+        <v>21.73674787305148</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.897396567671487</v>
       </c>
       <c r="I20">
-        <v>14.0572094603036</v>
+        <v>3.477052496425098</v>
       </c>
       <c r="J20">
-        <v>10.33295482596962</v>
+        <v>8.523465906541878</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.74414348636233</v>
       </c>
       <c r="L20">
-        <v>14.58209034343287</v>
+        <v>6.804702375428</v>
       </c>
       <c r="M20">
-        <v>19.31574879620763</v>
+        <v>18.60423647363286</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.19110100593359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.47144528049579</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.92467672721434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.47091825102815</v>
+        <v>8.896467273861767</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.208723945994541</v>
+        <v>8.732632699013207</v>
       </c>
       <c r="E21">
-        <v>16.21896212001926</v>
+        <v>11.53803587975883</v>
       </c>
       <c r="F21">
-        <v>21.08128639599774</v>
+        <v>21.59502452608741</v>
       </c>
       <c r="G21">
-        <v>2.039397612103921</v>
+        <v>22.39848326131745</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.145997781110667</v>
       </c>
       <c r="I21">
-        <v>13.57776727549102</v>
+        <v>3.359843675816006</v>
       </c>
       <c r="J21">
-        <v>10.62195446573028</v>
+        <v>8.520436064648774</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.47207236649437</v>
       </c>
       <c r="L21">
-        <v>15.45643780287818</v>
+        <v>6.943269150326881</v>
       </c>
       <c r="M21">
-        <v>20.47049143197225</v>
+        <v>19.57237349223374</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.75020235687791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>16.37785052878487</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.06320254303287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.37083356964969</v>
+        <v>9.223427806423008</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.26745678446995</v>
+        <v>8.943278890414694</v>
       </c>
       <c r="E22">
-        <v>16.54215095360464</v>
+        <v>11.75969507311952</v>
       </c>
       <c r="F22">
-        <v>21.41788188216352</v>
+        <v>21.90437257905694</v>
       </c>
       <c r="G22">
-        <v>2.034147286913423</v>
+        <v>22.79079118972667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.299532189481192</v>
       </c>
       <c r="I22">
-        <v>13.28363697015676</v>
+        <v>3.275020889056386</v>
       </c>
       <c r="J22">
-        <v>10.80818035082399</v>
+        <v>8.514962826216152</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.29635373234152</v>
       </c>
       <c r="L22">
-        <v>16.00446571102332</v>
+        <v>7.005069746590355</v>
       </c>
       <c r="M22">
-        <v>21.19430291059604</v>
+        <v>20.15680134666322</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.13325631671638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.87962325688962</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.14212148733613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.89173068398752</v>
+        <v>9.082480010325282</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.23604600007078</v>
+        <v>8.829284975778116</v>
       </c>
       <c r="E23">
-        <v>16.37023349395936</v>
+        <v>11.64457714216036</v>
       </c>
       <c r="F23">
-        <v>21.23509142347274</v>
+        <v>21.75974336678882</v>
       </c>
       <c r="G23">
-        <v>2.036943751543034</v>
+        <v>22.61597781241221</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.217879867768361</v>
       </c>
       <c r="I23">
-        <v>13.4387411537462</v>
+        <v>3.309354351669887</v>
       </c>
       <c r="J23">
-        <v>10.70904252731262</v>
+        <v>8.523979966204086</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.38715280855505</v>
       </c>
       <c r="L23">
-        <v>15.71409979157541</v>
+        <v>6.974255058508434</v>
       </c>
       <c r="M23">
-        <v>20.81079752937429</v>
+        <v>19.82147141228901</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.92719506608898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.59647395050314</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.11492270878738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.0202585942805</v>
+        <v>8.46612170200399</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.118508619400655</v>
+        <v>8.389385464886495</v>
       </c>
       <c r="E24">
-        <v>15.70687411762799</v>
+        <v>11.19396401498065</v>
       </c>
       <c r="F24">
-        <v>20.61094644675383</v>
+        <v>21.1907475547504</v>
       </c>
       <c r="G24">
-        <v>2.047668845227661</v>
+        <v>21.92119416795651</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.901994145288486</v>
       </c>
       <c r="I24">
-        <v>14.06534494545701</v>
+        <v>3.460707953596941</v>
       </c>
       <c r="J24">
-        <v>10.32818927104479</v>
+        <v>8.555728517682994</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.74325476915267</v>
       </c>
       <c r="L24">
-        <v>14.56740117280146</v>
+        <v>6.852066438815667</v>
       </c>
       <c r="M24">
-        <v>19.29634971955511</v>
+        <v>18.54522682655723</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.1822600179201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.51148684258088</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.00417683831046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.84042167198083</v>
+        <v>7.734464398631766</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.994930457085359</v>
+        <v>7.891819561130496</v>
       </c>
       <c r="E25">
-        <v>14.96781028661535</v>
+        <v>10.68728972567327</v>
       </c>
       <c r="F25">
-        <v>20.07677572684364</v>
+        <v>20.60552470932465</v>
       </c>
       <c r="G25">
-        <v>2.059571446517428</v>
+        <v>21.22560561897879</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.575114324021614</v>
       </c>
       <c r="I25">
-        <v>14.81323651235517</v>
+        <v>3.63293604894838</v>
       </c>
       <c r="J25">
-        <v>9.907313983761792</v>
+        <v>8.606294476045516</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.14334220520196</v>
       </c>
       <c r="L25">
-        <v>13.2297197733604</v>
+        <v>6.715772804772023</v>
       </c>
       <c r="M25">
-        <v>17.67088963408132</v>
+        <v>17.069054524829</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.45412110965328</v>
+        <v>14.25704314349794</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.92076783782016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.232780614929109</v>
+        <v>7.714964684211918</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.50163122165165</v>
+        <v>7.485846305540882</v>
       </c>
       <c r="E2">
-        <v>10.30548800628368</v>
+        <v>10.30378918377754</v>
       </c>
       <c r="F2">
-        <v>20.25607743810635</v>
+        <v>20.34656856423956</v>
       </c>
       <c r="G2">
-        <v>20.85586658780836</v>
+        <v>20.38902137914033</v>
       </c>
       <c r="H2">
-        <v>1.857101586498304</v>
+        <v>1.835870340258507</v>
       </c>
       <c r="I2">
-        <v>3.742409288954953</v>
+        <v>3.429370904713413</v>
       </c>
       <c r="J2">
-        <v>8.67260645438218</v>
+        <v>9.146844593439155</v>
       </c>
       <c r="K2">
-        <v>14.45181678036081</v>
+        <v>13.76124040026765</v>
       </c>
       <c r="L2">
-        <v>6.617083562761669</v>
+        <v>10.85409906244928</v>
       </c>
       <c r="M2">
-        <v>15.82434242729892</v>
+        <v>9.412886037846018</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.614286319354967</v>
       </c>
       <c r="O2">
-        <v>13.21197689493578</v>
+        <v>15.54895224827691</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.9281292890994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.16679480123272</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.99084083322824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.806290361757056</v>
+        <v>7.347053360434816</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.230458757556389</v>
+        <v>7.215708236241242</v>
       </c>
       <c r="E3">
-        <v>10.03333122712535</v>
+        <v>10.03708390014564</v>
       </c>
       <c r="F3">
-        <v>20.0040224851626</v>
+        <v>20.09827183990247</v>
       </c>
       <c r="G3">
-        <v>20.58010835413573</v>
+        <v>20.13617275325658</v>
       </c>
       <c r="H3">
-        <v>2.057219549817852</v>
+        <v>2.031766794551394</v>
       </c>
       <c r="I3">
-        <v>3.835131180854134</v>
+        <v>3.506460866806381</v>
       </c>
       <c r="J3">
-        <v>8.715779650926269</v>
+        <v>9.15669029639376</v>
       </c>
       <c r="K3">
-        <v>14.67045211305078</v>
+        <v>13.95440968662922</v>
       </c>
       <c r="L3">
-        <v>6.544755184551128</v>
+        <v>10.98383843502486</v>
       </c>
       <c r="M3">
-        <v>14.96973384280385</v>
+        <v>9.629416482055483</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.544625011624247</v>
       </c>
       <c r="O3">
-        <v>12.48838863523896</v>
+        <v>14.66247553992222</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.92681763878664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.43150735978094</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.9883543160174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.525193727249381</v>
+        <v>7.105403214478058</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.059633217713072</v>
+        <v>7.045676621143079</v>
       </c>
       <c r="E4">
-        <v>9.861861338952551</v>
+        <v>9.869102649518345</v>
       </c>
       <c r="F4">
-        <v>19.85629651519494</v>
+        <v>19.95189234735607</v>
       </c>
       <c r="G4">
-        <v>20.42292323925455</v>
+        <v>19.9951444090094</v>
       </c>
       <c r="H4">
-        <v>2.184619266699599</v>
+        <v>2.156487915641552</v>
       </c>
       <c r="I4">
-        <v>3.894809876078027</v>
+        <v>3.556406841050995</v>
       </c>
       <c r="J4">
-        <v>8.745513199835276</v>
+        <v>9.164292974961299</v>
       </c>
       <c r="K4">
-        <v>14.80886607347653</v>
+        <v>14.07725270576574</v>
       </c>
       <c r="L4">
-        <v>6.499085370688014</v>
+        <v>11.07676138908795</v>
       </c>
       <c r="M4">
-        <v>14.42184107408369</v>
+        <v>9.769696371395819</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.500616199469935</v>
       </c>
       <c r="O4">
-        <v>12.0247107268437</v>
+        <v>14.09370938826382</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.93301896062144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.96045832167493</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.99303897526856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.394743824575959</v>
+        <v>6.993498259997612</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.989680641947206</v>
+        <v>6.97601447203761</v>
       </c>
       <c r="E5">
-        <v>9.790099328302341</v>
+        <v>9.798884786515622</v>
       </c>
       <c r="F5">
-        <v>19.79179383808807</v>
+        <v>19.88831992184367</v>
       </c>
       <c r="G5">
-        <v>20.3514454253957</v>
+        <v>19.93160640971167</v>
       </c>
       <c r="H5">
-        <v>2.237720134388199</v>
+        <v>2.208477470126536</v>
       </c>
       <c r="I5">
-        <v>3.922469049028832</v>
+        <v>3.580537290547739</v>
       </c>
       <c r="J5">
-        <v>8.7566979517046</v>
+        <v>9.166246721356092</v>
       </c>
       <c r="K5">
-        <v>14.86583923805029</v>
+        <v>14.12725511453713</v>
       </c>
       <c r="L5">
-        <v>6.479554247762607</v>
+        <v>11.11442911151412</v>
       </c>
       <c r="M5">
-        <v>14.201396994146</v>
+        <v>9.830529748389383</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.48182851305669</v>
       </c>
       <c r="O5">
-        <v>11.83701170779684</v>
+        <v>13.86356315952296</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.9329659191606</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.76903287390112</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.99259569658353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.359235205498005</v>
+        <v>6.963065082196902</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.978820784559934</v>
+        <v>6.965112330510833</v>
       </c>
       <c r="E6">
-        <v>9.77708705755246</v>
+        <v>9.786239670119025</v>
       </c>
       <c r="F6">
-        <v>19.77374423630499</v>
+        <v>19.87118057452942</v>
       </c>
       <c r="G6">
-        <v>20.32698092257764</v>
+        <v>19.90956507239251</v>
       </c>
       <c r="H6">
-        <v>2.246645329450276</v>
+        <v>2.217220063150514</v>
       </c>
       <c r="I6">
-        <v>3.930475041315831</v>
+        <v>3.588579377984896</v>
       </c>
       <c r="J6">
-        <v>8.756497990658641</v>
+        <v>9.164725863836177</v>
       </c>
       <c r="K6">
-        <v>14.87484005017672</v>
+        <v>14.13432098972403</v>
       </c>
       <c r="L6">
-        <v>6.47555118600419</v>
+        <v>11.1167290493083</v>
       </c>
       <c r="M6">
-        <v>14.17488441223622</v>
+        <v>9.842970970056339</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.478024183767193</v>
       </c>
       <c r="O6">
-        <v>11.81290002703668</v>
+        <v>13.83433318207717</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.92781841791229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.7434499806873</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.98789223711623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.487162546505925</v>
+        <v>7.076539847317285</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.060886778626323</v>
+        <v>7.050099816218055</v>
       </c>
       <c r="E7">
-        <v>9.858106258344087</v>
+        <v>9.866676687852213</v>
       </c>
       <c r="F7">
-        <v>19.8352161854295</v>
+        <v>19.91951360196153</v>
       </c>
       <c r="G7">
-        <v>20.3872779088415</v>
+        <v>20.04006076991366</v>
       </c>
       <c r="H7">
-        <v>2.185426186891203</v>
+        <v>2.157852339394357</v>
       </c>
       <c r="I7">
-        <v>3.904068582612324</v>
+        <v>3.567416054954749</v>
       </c>
       <c r="J7">
-        <v>8.739933001224596</v>
+        <v>9.125183388306146</v>
       </c>
       <c r="K7">
-        <v>14.80836286379784</v>
+        <v>14.07405940803292</v>
       </c>
       <c r="L7">
-        <v>6.496818512670774</v>
+        <v>11.06537629175132</v>
       </c>
       <c r="M7">
-        <v>14.44687848818642</v>
+        <v>9.776710658726309</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.498107509167945</v>
       </c>
       <c r="O7">
-        <v>12.04181300270864</v>
+        <v>14.11187040888402</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.91875156173439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.97403706909059</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.97034610153836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.044912658734911</v>
+        <v>7.564517299075431</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.411845030940801</v>
+        <v>7.40700716839097</v>
       </c>
       <c r="E8">
-        <v>10.20905425769813</v>
+        <v>10.2129813017466</v>
       </c>
       <c r="F8">
-        <v>20.14163989068683</v>
+        <v>20.19262642983716</v>
       </c>
       <c r="G8">
-        <v>20.71351923806543</v>
+        <v>20.51302491421594</v>
       </c>
       <c r="H8">
-        <v>1.925263472717495</v>
+        <v>1.904340556299625</v>
       </c>
       <c r="I8">
-        <v>3.784919795773933</v>
+        <v>3.469091081296701</v>
       </c>
       <c r="J8">
-        <v>8.679313101199321</v>
+        <v>9.032013344035997</v>
       </c>
       <c r="K8">
-        <v>14.52561040745546</v>
+        <v>13.82286940677585</v>
       </c>
       <c r="L8">
-        <v>6.58983918630066</v>
+        <v>10.88351050285699</v>
       </c>
       <c r="M8">
-        <v>15.5694028781256</v>
+        <v>9.49269375114363</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.586812020814797</v>
       </c>
       <c r="O8">
-        <v>12.99072024715358</v>
+        <v>15.26780829674574</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.90756654459289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.93499721978031</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.93942800877486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.044158365817648</v>
+        <v>8.432351951192553</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.058887914092262</v>
+        <v>8.054588162744185</v>
       </c>
       <c r="E9">
-        <v>10.86503844321829</v>
+        <v>10.85677185302296</v>
       </c>
       <c r="F9">
-        <v>20.83249298123847</v>
+        <v>20.85651636479735</v>
       </c>
       <c r="G9">
-        <v>21.51033786588858</v>
+        <v>21.32235794877108</v>
       </c>
       <c r="H9">
-        <v>1.668261512484319</v>
+        <v>1.678598676502046</v>
       </c>
       <c r="I9">
-        <v>3.55848230202246</v>
+        <v>3.279254123768643</v>
       </c>
       <c r="J9">
-        <v>8.597176647112011</v>
+        <v>8.991798254290302</v>
       </c>
       <c r="K9">
-        <v>14.00493743177777</v>
+        <v>13.36977856159988</v>
       </c>
       <c r="L9">
-        <v>6.765587996016001</v>
+        <v>10.65214929729641</v>
       </c>
       <c r="M9">
-        <v>17.53672472095372</v>
+        <v>8.984227790121727</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.755610701884322</v>
       </c>
       <c r="O9">
-        <v>14.66158731748</v>
+        <v>17.30842427376921</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.96888502972127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.63532034514548</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.98899329853747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.689943078146438</v>
+        <v>9.024812770449495</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.434550076416478</v>
+        <v>8.447517302001652</v>
       </c>
       <c r="E10">
-        <v>11.15960456200238</v>
+        <v>11.1492962981624</v>
       </c>
       <c r="F10">
-        <v>21.2150531895494</v>
+        <v>21.1496244577956</v>
       </c>
       <c r="G10">
-        <v>21.96588963691157</v>
+        <v>22.22917043814412</v>
       </c>
       <c r="H10">
-        <v>1.979968062774</v>
+        <v>1.980836663802973</v>
       </c>
       <c r="I10">
-        <v>3.411407172276018</v>
+        <v>3.160011128342283</v>
       </c>
       <c r="J10">
-        <v>8.523821007387546</v>
+        <v>8.756986741559038</v>
       </c>
       <c r="K10">
-        <v>13.64570799048176</v>
+        <v>13.0615596770787</v>
       </c>
       <c r="L10">
-        <v>6.829270535388174</v>
+        <v>10.55785598546466</v>
       </c>
       <c r="M10">
-        <v>18.87672090571337</v>
+        <v>8.644433023080673</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.812650623321932</v>
       </c>
       <c r="O10">
-        <v>15.69272442145314</v>
+        <v>18.66974729264184</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.9740726305284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.67520208968838</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.93036624633488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.092816570842555</v>
+        <v>9.508361628170992</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.968403966603156</v>
+        <v>8.011314231898989</v>
       </c>
       <c r="E11">
-        <v>9.978325450055856</v>
+        <v>9.974555232867065</v>
       </c>
       <c r="F11">
-        <v>20.08971957322235</v>
+        <v>19.91356327479181</v>
       </c>
       <c r="G11">
-        <v>20.63406017082697</v>
+        <v>21.87461134111757</v>
       </c>
       <c r="H11">
-        <v>2.866146709058065</v>
+        <v>2.861490462012304</v>
       </c>
       <c r="I11">
-        <v>3.375617769551838</v>
+        <v>3.138695499023106</v>
       </c>
       <c r="J11">
-        <v>8.243249428397469</v>
+        <v>8.176069634884323</v>
       </c>
       <c r="K11">
-        <v>13.54369935056884</v>
+        <v>12.97961445250507</v>
       </c>
       <c r="L11">
-        <v>6.432890148878233</v>
+        <v>10.59624267713384</v>
       </c>
       <c r="M11">
-        <v>19.51296850396907</v>
+        <v>8.51270957982157</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.411950437920858</v>
       </c>
       <c r="O11">
-        <v>15.27571741250386</v>
+        <v>19.22549317538225</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.34001952447575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.21405241433185</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.21213013265949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.349701212404796</v>
+        <v>9.82886063627492</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.493818145772371</v>
+        <v>7.546983185897887</v>
       </c>
       <c r="E12">
-        <v>9.052890258404691</v>
+        <v>9.045497798560149</v>
       </c>
       <c r="F12">
-        <v>19.07702148453737</v>
+        <v>18.8712591680442</v>
       </c>
       <c r="G12">
-        <v>19.4399231061703</v>
+        <v>21.13584333867825</v>
       </c>
       <c r="H12">
-        <v>4.136803914595503</v>
+        <v>4.13219495070901</v>
       </c>
       <c r="I12">
-        <v>3.359718652633992</v>
+        <v>3.125945735331256</v>
       </c>
       <c r="J12">
-        <v>8.028929988262428</v>
+        <v>7.887987363993609</v>
       </c>
       <c r="K12">
-        <v>13.56119440081048</v>
+        <v>12.99678061758133</v>
       </c>
       <c r="L12">
-        <v>6.210259276987354</v>
+        <v>10.66346161175393</v>
       </c>
       <c r="M12">
-        <v>19.74265286897079</v>
+        <v>8.485462064724764</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.186784494130764</v>
       </c>
       <c r="O12">
-        <v>14.67585047574673</v>
+        <v>19.39633675789529</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.81893424555614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.5811975720304</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.66932592447772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.474228263448953</v>
+        <v>10.00615859178141</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.979178686816136</v>
+        <v>7.021489761618842</v>
       </c>
       <c r="E13">
-        <v>8.299673231604924</v>
+        <v>8.280973420156927</v>
       </c>
       <c r="F13">
-        <v>18.054676338305</v>
+        <v>17.90934040050282</v>
       </c>
       <c r="G13">
-        <v>18.21613561300256</v>
+        <v>19.80594087069399</v>
       </c>
       <c r="H13">
-        <v>5.468574971426941</v>
+        <v>5.465511798945829</v>
       </c>
       <c r="I13">
-        <v>3.371637050494543</v>
+        <v>3.135062374354305</v>
       </c>
       <c r="J13">
-        <v>7.844787264695807</v>
+        <v>7.803507192636035</v>
       </c>
       <c r="K13">
-        <v>13.66615827689406</v>
+        <v>13.07568558479067</v>
       </c>
       <c r="L13">
-        <v>6.114325718615259</v>
+        <v>10.72918870481482</v>
       </c>
       <c r="M13">
-        <v>19.71430704595454</v>
+        <v>8.5379352396514</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.089587271960031</v>
       </c>
       <c r="O13">
-        <v>13.90470749856074</v>
+        <v>19.32475294222582</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.33216129370588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.78273778202667</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.229015207607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.494888031514643</v>
+        <v>10.06069491730778</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.600039330582858</v>
+        <v>6.626237728718319</v>
       </c>
       <c r="E14">
-        <v>7.90274310808831</v>
+        <v>7.874541930575423</v>
       </c>
       <c r="F14">
-        <v>17.33328786230012</v>
+        <v>17.26628789532987</v>
       </c>
       <c r="G14">
-        <v>17.33798101209556</v>
+        <v>18.60958378739926</v>
       </c>
       <c r="H14">
-        <v>6.454423622827631</v>
+        <v>6.455821957387982</v>
       </c>
       <c r="I14">
-        <v>3.395236503665291</v>
+        <v>3.15461700973913</v>
       </c>
       <c r="J14">
-        <v>7.729857334593318</v>
+        <v>7.816667525092208</v>
       </c>
       <c r="K14">
-        <v>13.78308788519349</v>
+        <v>13.1585140072633</v>
       </c>
       <c r="L14">
-        <v>6.124591620171508</v>
+        <v>10.77102726943055</v>
       </c>
       <c r="M14">
-        <v>19.58421651130543</v>
+        <v>8.614545066250717</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.098822527841487</v>
       </c>
       <c r="O14">
-        <v>13.28105966645369</v>
+        <v>19.16987216472755</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.00719891597284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.14167712400247</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.96290583698526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.459891148482118</v>
+        <v>10.03355764880574</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.499345604494938</v>
+        <v>6.518154689903327</v>
       </c>
       <c r="E15">
-        <v>7.825503245051591</v>
+        <v>7.795345927682794</v>
       </c>
       <c r="F15">
-        <v>17.15156420967508</v>
+        <v>17.11907395969443</v>
       </c>
       <c r="G15">
-        <v>17.1100580601041</v>
+        <v>18.20382812360325</v>
       </c>
       <c r="H15">
-        <v>6.69300877272843</v>
+        <v>6.694094697682535</v>
       </c>
       <c r="I15">
-        <v>3.41106402714437</v>
+        <v>3.168997646599275</v>
       </c>
       <c r="J15">
-        <v>7.707013231651525</v>
+        <v>7.850495735640909</v>
       </c>
       <c r="K15">
-        <v>13.83028285569423</v>
+        <v>13.19121938876117</v>
       </c>
       <c r="L15">
-        <v>6.13623490952016</v>
+        <v>10.77918025128844</v>
       </c>
       <c r="M15">
-        <v>19.50576777692774</v>
+        <v>8.651501578160532</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.110431695728843</v>
       </c>
       <c r="O15">
-        <v>13.09752974897343</v>
+        <v>19.0871804852668</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.93238493493734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.954196715212</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.91367805719156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.163130006869988</v>
+        <v>9.724455479413171</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.424640507143851</v>
+        <v>6.415416854719455</v>
       </c>
       <c r="E16">
-        <v>7.831791822294157</v>
+        <v>7.805302742919504</v>
       </c>
       <c r="F16">
-        <v>17.16956712190798</v>
+        <v>17.26042459725021</v>
       </c>
       <c r="G16">
-        <v>17.11232525741173</v>
+        <v>17.38998353803585</v>
       </c>
       <c r="H16">
-        <v>6.480280526637706</v>
+        <v>6.479788973060799</v>
       </c>
       <c r="I16">
-        <v>3.476599617628616</v>
+        <v>3.223333224458778</v>
       </c>
       <c r="J16">
-        <v>7.773830833632292</v>
+        <v>8.14908040820861</v>
       </c>
       <c r="K16">
-        <v>13.94558523037178</v>
+        <v>13.26959291785977</v>
       </c>
       <c r="L16">
-        <v>6.121280803322233</v>
+        <v>10.73344073339472</v>
       </c>
       <c r="M16">
-        <v>18.97507483780452</v>
+        <v>8.790951491544176</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.099181324972832</v>
       </c>
       <c r="O16">
-        <v>12.78227457701395</v>
+        <v>18.57922359858307</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.02066721507339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.6469142609548</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.09212898598751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.916885219034834</v>
+        <v>9.455303132847728</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.572807958800954</v>
+        <v>6.553586943621803</v>
       </c>
       <c r="E17">
-        <v>8.02296465432665</v>
+        <v>8.001767189617672</v>
       </c>
       <c r="F17">
-        <v>17.5676183610055</v>
+        <v>17.69870028231274</v>
       </c>
       <c r="G17">
-        <v>17.58615413696531</v>
+        <v>17.51936411668652</v>
       </c>
       <c r="H17">
-        <v>5.735011850991524</v>
+        <v>5.733377391887516</v>
       </c>
       <c r="I17">
-        <v>3.515054620143998</v>
+        <v>3.25558244332917</v>
       </c>
       <c r="J17">
-        <v>7.885303169962662</v>
+        <v>8.360055302991542</v>
       </c>
       <c r="K17">
-        <v>13.97381043103682</v>
+        <v>13.2946073168768</v>
       </c>
       <c r="L17">
-        <v>6.092514795631417</v>
+        <v>10.69186381253477</v>
       </c>
       <c r="M17">
-        <v>18.6330932287106</v>
+        <v>8.85700828311847</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.074385491029002</v>
       </c>
       <c r="O17">
-        <v>12.88552661918671</v>
+        <v>18.26385923775566</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.25951523335822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.76434514203927</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.35995527429525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.717010101780104</v>
+        <v>9.210770470140904</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.93404839937801</v>
+        <v>6.913126565706544</v>
       </c>
       <c r="E18">
-        <v>8.523598260986558</v>
+        <v>8.507264185243594</v>
       </c>
       <c r="F18">
-        <v>18.3549793184135</v>
+        <v>18.48380508597419</v>
       </c>
       <c r="G18">
-        <v>18.53987063356774</v>
+        <v>18.31538202105934</v>
       </c>
       <c r="H18">
-        <v>4.463710945975663</v>
+        <v>4.460929613605367</v>
       </c>
       <c r="I18">
-        <v>3.524568844444044</v>
+        <v>3.26053219321598</v>
       </c>
       <c r="J18">
-        <v>8.052532205179839</v>
+        <v>8.561832514596169</v>
       </c>
       <c r="K18">
-        <v>13.93520979770281</v>
+        <v>13.27587998250142</v>
       </c>
       <c r="L18">
-        <v>6.119315537118404</v>
+        <v>10.64729307845839</v>
       </c>
       <c r="M18">
-        <v>18.40170850625281</v>
+        <v>8.864688715419106</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.105515100034062</v>
       </c>
       <c r="O18">
-        <v>13.34882144934893</v>
+        <v>18.0739555836817</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.66603123782842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.25253205141097</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.76497124970046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.517872315236767</v>
+        <v>8.957598125592739</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.447602079320642</v>
+        <v>7.429264791282246</v>
       </c>
       <c r="E19">
-        <v>9.384980355354456</v>
+        <v>9.371451184435955</v>
       </c>
       <c r="F19">
-        <v>19.37420876520499</v>
+        <v>19.47823360004284</v>
       </c>
       <c r="G19">
-        <v>19.75415751315794</v>
+        <v>19.46626392375828</v>
       </c>
       <c r="H19">
-        <v>2.967075592569972</v>
+        <v>2.971651474418654</v>
       </c>
       <c r="I19">
-        <v>3.527026558321099</v>
+        <v>3.264070977662313</v>
       </c>
       <c r="J19">
-        <v>8.245943612270494</v>
+        <v>8.755057937136943</v>
       </c>
       <c r="K19">
-        <v>13.88249531094954</v>
+        <v>13.246764602998</v>
       </c>
       <c r="L19">
-        <v>6.28891067052596</v>
+        <v>10.61777795172562</v>
       </c>
       <c r="M19">
-        <v>18.32462574711095</v>
+        <v>8.845634698924655</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.278037534148766</v>
       </c>
       <c r="O19">
-        <v>14.08583384027721</v>
+        <v>18.04449159559053</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.16038785877696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.01870064540548</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.24180906205695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.437983936135822</v>
+        <v>8.786874117979277</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.339880942412337</v>
+        <v>8.337033836614856</v>
       </c>
       <c r="E20">
-        <v>11.0687465141375</v>
+        <v>11.05612601254002</v>
       </c>
       <c r="F20">
-        <v>21.04859046351648</v>
+        <v>21.05810270195779</v>
       </c>
       <c r="G20">
-        <v>21.73674787305148</v>
+        <v>21.62793557829665</v>
       </c>
       <c r="H20">
-        <v>1.897396567671487</v>
+        <v>1.902205570606004</v>
       </c>
       <c r="I20">
-        <v>3.477052496425098</v>
+        <v>3.223661200804005</v>
       </c>
       <c r="J20">
-        <v>8.523465906541878</v>
+        <v>8.91691180320182</v>
       </c>
       <c r="K20">
-        <v>13.74414348636233</v>
+        <v>13.14437471652378</v>
       </c>
       <c r="L20">
-        <v>6.804702375428</v>
+        <v>10.57895327215842</v>
       </c>
       <c r="M20">
-        <v>18.60423647363286</v>
+        <v>8.735518633870656</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.791674141815459</v>
       </c>
       <c r="O20">
-        <v>15.47144528049579</v>
+        <v>18.39516164143557</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.92467672721434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.44968536899052</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.93742606242549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.896467273861767</v>
+        <v>9.249872968747534</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.732632699013207</v>
+        <v>8.799696752286579</v>
       </c>
       <c r="E21">
-        <v>11.53803587975883</v>
+        <v>11.54358989072873</v>
       </c>
       <c r="F21">
-        <v>21.59502452608741</v>
+        <v>21.29087843401798</v>
       </c>
       <c r="G21">
-        <v>22.39848326131745</v>
+        <v>24.01174634652431</v>
       </c>
       <c r="H21">
-        <v>2.145997781110667</v>
+        <v>2.136164420817988</v>
       </c>
       <c r="I21">
-        <v>3.359843675816006</v>
+        <v>3.129243627058911</v>
       </c>
       <c r="J21">
-        <v>8.520436064648774</v>
+        <v>8.231120593189541</v>
       </c>
       <c r="K21">
-        <v>13.47207236649437</v>
+        <v>12.9202675420137</v>
       </c>
       <c r="L21">
-        <v>6.943269150326881</v>
+        <v>10.54398492017569</v>
       </c>
       <c r="M21">
-        <v>19.57237349223374</v>
+        <v>8.478583273055545</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.918335168191031</v>
       </c>
       <c r="O21">
-        <v>16.37785052878487</v>
+        <v>19.33427636096991</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.06320254303287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.35146749854956</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.83579575940615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.223427806423008</v>
+        <v>9.584687085695007</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.943278890414694</v>
+        <v>9.059547142288968</v>
       </c>
       <c r="E22">
-        <v>11.75969507311952</v>
+        <v>11.77938982036371</v>
       </c>
       <c r="F22">
-        <v>21.90437257905694</v>
+        <v>21.3776087291074</v>
       </c>
       <c r="G22">
-        <v>22.79079118972667</v>
+        <v>25.63350676038893</v>
       </c>
       <c r="H22">
-        <v>2.299532189481192</v>
+        <v>2.280450388661617</v>
       </c>
       <c r="I22">
-        <v>3.275020889056386</v>
+        <v>3.056614436044686</v>
       </c>
       <c r="J22">
-        <v>8.514962826216152</v>
+        <v>7.811445713144298</v>
       </c>
       <c r="K22">
-        <v>13.29635373234152</v>
+        <v>12.77886921247105</v>
       </c>
       <c r="L22">
-        <v>7.005069746590355</v>
+        <v>10.53844845911042</v>
       </c>
       <c r="M22">
-        <v>20.15680134666322</v>
+        <v>8.313884313837121</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.972300917505203</v>
       </c>
       <c r="O22">
-        <v>16.87962325688962</v>
+        <v>19.89618509611959</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.14212148733613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.84871521798636</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.74079796690084</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.082480010325282</v>
+        <v>9.427678620613802</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.829284975778116</v>
+        <v>8.911768595554884</v>
       </c>
       <c r="E23">
-        <v>11.64457714216036</v>
+        <v>11.65346050310619</v>
       </c>
       <c r="F23">
-        <v>21.75974336678882</v>
+        <v>21.38214225225019</v>
       </c>
       <c r="G23">
-        <v>22.61597781241221</v>
+        <v>24.60471962108844</v>
       </c>
       <c r="H23">
-        <v>2.217879867768361</v>
+        <v>2.204618646191358</v>
       </c>
       <c r="I23">
-        <v>3.309354351669887</v>
+        <v>3.081938051557315</v>
       </c>
       <c r="J23">
-        <v>8.523979966204086</v>
+        <v>8.095788408572552</v>
       </c>
       <c r="K23">
-        <v>13.38715280855505</v>
+        <v>12.84941911247041</v>
       </c>
       <c r="L23">
-        <v>6.974255058508434</v>
+        <v>10.53361970770318</v>
       </c>
       <c r="M23">
-        <v>19.82147141228901</v>
+        <v>8.401097734390648</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.946228488761721</v>
       </c>
       <c r="O23">
-        <v>16.59647395050314</v>
+        <v>19.58305395926298</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.11492270878738</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.57249601858954</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.83035888237174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.46612170200399</v>
+        <v>8.802702364870854</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.389385464886495</v>
+        <v>8.386810234401512</v>
       </c>
       <c r="E24">
-        <v>11.19396401498065</v>
+        <v>11.18065602493012</v>
       </c>
       <c r="F24">
-        <v>21.1907475547504</v>
+        <v>21.19518828930332</v>
       </c>
       <c r="G24">
-        <v>21.92119416795651</v>
+        <v>21.78865464678772</v>
       </c>
       <c r="H24">
-        <v>1.901994145288486</v>
+        <v>1.90696018740959</v>
       </c>
       <c r="I24">
-        <v>3.460707953596941</v>
+        <v>3.203624565786082</v>
       </c>
       <c r="J24">
-        <v>8.555728517682994</v>
+        <v>8.951457227506895</v>
       </c>
       <c r="K24">
-        <v>13.74325476915267</v>
+        <v>13.14441922506545</v>
       </c>
       <c r="L24">
-        <v>6.852066438815667</v>
+        <v>10.57688951672027</v>
       </c>
       <c r="M24">
-        <v>18.54522682655723</v>
+        <v>8.736847117578717</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.838641251315286</v>
       </c>
       <c r="O24">
-        <v>15.51148684258088</v>
+        <v>18.34558302575769</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.00417683831046</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.49608581396645</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.01319084068933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.734464398631766</v>
+        <v>8.158064702249563</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.891819561130496</v>
+        <v>7.882430482930855</v>
       </c>
       <c r="E25">
-        <v>10.68728972567327</v>
+        <v>10.68122003083013</v>
       </c>
       <c r="F25">
-        <v>20.60552470932465</v>
+        <v>20.65961051463725</v>
       </c>
       <c r="G25">
-        <v>21.22560561897879</v>
+        <v>20.9306041299676</v>
       </c>
       <c r="H25">
-        <v>1.575114324021614</v>
+        <v>1.56112566968339</v>
       </c>
       <c r="I25">
-        <v>3.63293604894838</v>
+        <v>3.346758120540225</v>
       </c>
       <c r="J25">
-        <v>8.606294476045516</v>
+        <v>9.039819798825398</v>
       </c>
       <c r="K25">
-        <v>14.14334220520196</v>
+        <v>13.48841918167221</v>
       </c>
       <c r="L25">
-        <v>6.715772804772023</v>
+        <v>10.69873933823942</v>
       </c>
       <c r="M25">
-        <v>17.069054524829</v>
+        <v>9.119567712919242</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.708564438476038</v>
       </c>
       <c r="O25">
-        <v>14.25704314349794</v>
+        <v>16.82229393051815</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.92076783782016</v>
+        <v>14.22123993617163</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.96133514481312</v>
       </c>
     </row>
   </sheetData>
